--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aagbebaku.TSI\Documents\NFL-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A55C8B0-8546-46F4-B3AC-EAB24B88A836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870FB632-AD72-4123-A620-5934E41BA3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="WL Record" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="88">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -259,46 +258,49 @@
     <t>Prediction Visitor</t>
   </si>
   <si>
-    <t>Miami +7.5</t>
-  </si>
-  <si>
     <t>Las Vegas +2.5</t>
   </si>
   <si>
-    <t>Philadelphia +3</t>
-  </si>
-  <si>
-    <t>Detroit +8.5</t>
-  </si>
-  <si>
     <t>Dallas - 9</t>
   </si>
   <si>
-    <t>Washington +9.5</t>
-  </si>
-  <si>
-    <t>New York Jets +12</t>
-  </si>
-  <si>
-    <t>Cleveland +2.5</t>
-  </si>
-  <si>
-    <t>Tennessee -3</t>
-  </si>
-  <si>
     <t>Indianapolis -10</t>
   </si>
   <si>
-    <t>Los Angeles -3</t>
-  </si>
-  <si>
     <t>Arizona - 10</t>
   </si>
   <si>
-    <t>Seattle +3</t>
-  </si>
-  <si>
-    <t>San Francisco +4</t>
+    <t>Baltimore -7.5</t>
+  </si>
+  <si>
+    <t>Pittsburgh -16</t>
+  </si>
+  <si>
+    <t>Tampa Bay - 9.5</t>
+  </si>
+  <si>
+    <t>Buffalo -12</t>
+  </si>
+  <si>
+    <t>New England -7</t>
+  </si>
+  <si>
+    <t>New Orleans +3</t>
+  </si>
+  <si>
+    <t>Minnesota +3</t>
+  </si>
+  <si>
+    <t>Denver -3</t>
+  </si>
+  <si>
+    <t>PUSH(Dealers Choice)</t>
+  </si>
+  <si>
+    <t>Green Bay -3</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams -4</t>
   </si>
 </sst>
 </file>
@@ -694,7 +696,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,7 +709,7 @@
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -750,22 +752,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>7.5</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <v>46.5</v>
@@ -782,28 +784,28 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>8.5</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I3">
         <v>42.5</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -814,22 +816,22 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F4">
         <v>-9</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I4">
         <v>55</v>
@@ -846,22 +848,22 @@
         <v>70</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>9.5</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I5">
         <v>51.5</v>
@@ -878,22 +880,22 @@
         <v>46</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6">
         <v>47.5</v>
@@ -910,22 +912,22 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F7">
         <v>-2.5</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7">
         <v>45</v>
@@ -942,22 +944,22 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>-13</v>
+        <v>-2</v>
       </c>
       <c r="F8">
         <v>-3</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8">
         <v>44.5</v>
@@ -977,19 +979,19 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="F9">
         <v>-10</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <v>47.5</v>
@@ -1006,22 +1008,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="F10">
         <v>-10</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>44.5</v>
@@ -1041,10 +1043,10 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F11">
         <v>-3</v>
@@ -1053,7 +1055,7 @@
         <v>83</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I11">
         <v>53</v>
@@ -1070,28 +1072,28 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="F12">
         <v>-3</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H12">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1102,22 +1104,22 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F13">
         <v>-3</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I13">
         <v>49.5</v>
@@ -1134,22 +1136,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>29</v>
       </c>
       <c r="E14">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F14">
         <v>2.5</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I14">
         <v>51.5</v>
@@ -1166,19 +1168,19 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15">
         <v>55</v>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870FB632-AD72-4123-A620-5934E41BA3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED49A84-E34F-4DB5-A0DD-2B3A7D0762F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="87">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>Denver -3</t>
-  </si>
-  <si>
-    <t>PUSH(Dealers Choice)</t>
   </si>
   <si>
     <t>Green Bay -3</t>
@@ -696,7 +693,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,7 +1090,7 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1116,7 +1113,7 @@
         <v>-3</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13">
         <v>42</v>
@@ -1180,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15">
         <v>55</v>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED49A84-E34F-4DB5-A0DD-2B3A7D0762F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895C3CF-7684-4706-B3CF-14E867B4C81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
     <sheet name="Results" sheetId="1" r:id="rId2"/>
-    <sheet name="Archive" sheetId="2" r:id="rId3"/>
-    <sheet name="WL Record" sheetId="3" r:id="rId4"/>
+    <sheet name="WL Record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -298,6 +297,57 @@
   </si>
   <si>
     <t>Los Angeles Rams -4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>San Francisco -6</t>
+  </si>
+  <si>
+    <t>Miami -3</t>
+  </si>
+  <si>
+    <t>Cincinnati -1</t>
+  </si>
+  <si>
+    <t>Buffalo -7</t>
+  </si>
+  <si>
+    <t>Minnesota -2</t>
+  </si>
+  <si>
+    <t>Baltimore -6</t>
+  </si>
+  <si>
+    <t>Carolina -3.5</t>
+  </si>
+  <si>
+    <t>Cleveland -11.5</t>
+  </si>
+  <si>
+    <t>Tennessee - 10</t>
+  </si>
+  <si>
+    <t>New Orleans +1.5</t>
+  </si>
+  <si>
+    <t>Dallas -2.5</t>
+  </si>
+  <si>
+    <t>Waiting on Injury Report</t>
+  </si>
+  <si>
+    <t>Pittsburgh +5.5</t>
+  </si>
+  <si>
+    <t>Tampa Bay -11.5</t>
   </si>
 </sst>
 </file>
@@ -690,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,31 +793,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>31</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>7.5</v>
-      </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>66</v>
@@ -775,31 +825,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>42.5</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
         <v>66</v>
@@ -807,31 +857,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>-15</v>
       </c>
       <c r="F4">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I4">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
@@ -839,63 +889,63 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I5">
-        <v>51.5</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>-25</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>66</v>
@@ -903,31 +953,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="F7">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
@@ -935,31 +985,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="F8">
-        <v>-3</v>
+        <v>-11.5</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I8">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="J8" t="s">
         <v>66</v>
@@ -967,31 +1017,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="F9">
         <v>-10</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>50</v>
       </c>
       <c r="I9">
-        <v>47.5</v>
+        <v>44.5</v>
       </c>
       <c r="J9" t="s">
         <v>66</v>
@@ -999,63 +1049,63 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-10</v>
+        <v>-1.5</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I10">
-        <v>44.5</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I11">
-        <v>53</v>
+        <v>44.5</v>
       </c>
       <c r="J11" t="s">
         <v>66</v>
@@ -1063,129 +1113,155 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H12">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I12">
-        <v>44</v>
+        <v>49.5</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I13">
-        <v>49.5</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E14">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>2.5</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="H14">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>51.5</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>-5.5</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H15">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>-15</v>
+      </c>
+      <c r="F16">
+        <v>-11.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16">
         <v>55</v>
       </c>
-      <c r="I15">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I16">
+        <v>49.5</v>
+      </c>
+      <c r="J16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1196,709 +1272,1451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6AE3A-BD10-4395-A680-AB7F59500C66}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="4" width="25.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" customWidth="1"/>
-    <col min="11" max="12" width="16.7265625" customWidth="1"/>
-    <col min="13" max="13" width="19.26953125" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" customWidth="1"/>
-    <col min="15" max="15" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="12" max="13" width="16.7265625" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>27</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>48</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>41.5</v>
       </c>
-      <c r="L2">
-        <f>SUM(D2,C2)</f>
+      <c r="M2">
+        <f>SUM(E2,D2)</f>
         <v>52</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="str">
-        <f>IF(L2&gt;K2,"WIN","LOSS")</f>
+      <c r="P2" t="str">
+        <f>IF(M2&gt;L2,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>23</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>43</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>41.5</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L14" si="0">SUM(D3,C3)</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M14" si="0">SUM(E3,D3)</f>
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>54</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O14" si="1">IF(L3&gt;K3,"WIN","LOSS")</f>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P14" si="1">IF(M3&gt;L3,"WIN","LOSS")</f>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>41</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-2.5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>49</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>47.5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-5.5</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>47</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>46.5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>34</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>22</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-7</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-6</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>51</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>50.5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>56</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>14.5</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>51</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>48.5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>37</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>23</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>26</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>50</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>46.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>57</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>53</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-22</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-10</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>48</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>49.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>40</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>58</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>24</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>26</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>29</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>55</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>49.5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>31</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>24</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-4</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-3</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>52</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>45</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>59</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>37</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>13</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>21</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-12</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-7</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>54</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>48</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>42</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>37</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>28</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>29</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>52</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-7</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>60</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>52.5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>37</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>29</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>16</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>52</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-6.5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>35</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>38.5</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>58</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>7.5</v>
+      </c>
+      <c r="K15">
+        <v>53</v>
+      </c>
+      <c r="L15">
+        <v>46.5</v>
+      </c>
+      <c r="M15">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>-9</v>
+      </c>
+      <c r="K16">
+        <v>42</v>
+      </c>
+      <c r="L16">
+        <v>42.5</v>
+      </c>
+      <c r="M16">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17">
+        <v>-11</v>
+      </c>
+      <c r="J17">
+        <v>-9</v>
+      </c>
+      <c r="K17">
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <v>55</v>
+      </c>
+      <c r="M17">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>64</v>
+      </c>
+      <c r="L18">
+        <v>51.5</v>
+      </c>
+      <c r="M18">
+        <v>48</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>-10</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>47.5</v>
+      </c>
+      <c r="M19">
+        <v>62</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-1.5</v>
+      </c>
+      <c r="K20">
+        <v>46</v>
+      </c>
+      <c r="L20">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <v>-13</v>
+      </c>
+      <c r="J21">
+        <v>-3</v>
+      </c>
+      <c r="K21">
+        <v>53</v>
+      </c>
+      <c r="L21">
+        <v>44.5</v>
+      </c>
+      <c r="M21">
+        <v>44</v>
+      </c>
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22">
+        <v>-15</v>
+      </c>
+      <c r="J22">
+        <v>-10</v>
+      </c>
+      <c r="K22">
+        <v>49</v>
+      </c>
+      <c r="L22">
+        <v>47.5</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23">
+        <v>-17</v>
+      </c>
+      <c r="J23">
+        <v>-10</v>
+      </c>
+      <c r="K23">
+        <v>41</v>
+      </c>
+      <c r="L23">
+        <v>44.5</v>
+      </c>
+      <c r="M23">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <v>-6</v>
+      </c>
+      <c r="J24">
+        <v>-3</v>
+      </c>
+      <c r="K24">
+        <v>58</v>
+      </c>
+      <c r="L24">
+        <v>53</v>
+      </c>
+      <c r="M24">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>-3</v>
+      </c>
+      <c r="K25">
+        <v>39</v>
+      </c>
+      <c r="L25">
+        <v>44</v>
+      </c>
+      <c r="M25">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26">
+        <v>-2</v>
+      </c>
+      <c r="J26">
+        <v>-3.5</v>
+      </c>
+      <c r="K26">
+        <v>38</v>
+      </c>
+      <c r="L26">
+        <v>49.5</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>85</v>
+      </c>
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27">
+        <v>-2</v>
+      </c>
+      <c r="J27">
+        <v>2.5</v>
+      </c>
+      <c r="K27">
+        <v>56</v>
+      </c>
+      <c r="L27">
+        <v>51.5</v>
+      </c>
+      <c r="M27">
+        <v>55</v>
+      </c>
+      <c r="N27" t="s">
+        <v>73</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <v>31</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>3.5</v>
+      </c>
+      <c r="K28">
+        <v>55</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1907,719 +2725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF96429-4E9F-4542-BA21-728E3FF2499F}">
-  <dimension ref="A1:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="31.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>-6</v>
-      </c>
-      <c r="J2">
-        <v>48</v>
-      </c>
-      <c r="K2">
-        <v>41.5</v>
-      </c>
-      <c r="L2">
-        <f>SUM(D2,C2)</f>
-        <v>52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="str">
-        <f>IF(L2&gt;K2,"WIN","LOSS")</f>
-        <v>WIN</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>3.5</v>
-      </c>
-      <c r="J3">
-        <v>43</v>
-      </c>
-      <c r="K3">
-        <v>41.5</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L14" si="0">SUM(D3,C3)</f>
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O14" si="1">IF(L3&gt;K3,"WIN","LOSS")</f>
-        <v>LOSS</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4">
-        <v>-5</v>
-      </c>
-      <c r="I4">
-        <v>-2.5</v>
-      </c>
-      <c r="J4">
-        <v>49</v>
-      </c>
-      <c r="K4">
-        <v>47.5</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="1"/>
-        <v>WIN</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5">
-        <v>-5</v>
-      </c>
-      <c r="I5">
-        <v>-5.5</v>
-      </c>
-      <c r="J5">
-        <v>47</v>
-      </c>
-      <c r="K5">
-        <v>46.5</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="1"/>
-        <v>LOSS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6">
-        <v>-7</v>
-      </c>
-      <c r="I6">
-        <v>-6</v>
-      </c>
-      <c r="J6">
-        <v>51</v>
-      </c>
-      <c r="K6">
-        <v>50.5</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="1"/>
-        <v>WIN</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>14.5</v>
-      </c>
-      <c r="J7">
-        <v>51</v>
-      </c>
-      <c r="K7">
-        <v>48.5</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="1"/>
-        <v>LOSS</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8">
-        <v>46.5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="1"/>
-        <v>LOSS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9">
-        <v>-22</v>
-      </c>
-      <c r="I9">
-        <v>-10</v>
-      </c>
-      <c r="J9">
-        <v>48</v>
-      </c>
-      <c r="K9">
-        <v>49.5</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="M9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="1"/>
-        <v>LOSS</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>-3</v>
-      </c>
-      <c r="I10">
-        <v>1.5</v>
-      </c>
-      <c r="J10">
-        <v>55</v>
-      </c>
-      <c r="K10">
-        <v>49.5</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="1"/>
-        <v>WIN</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11">
-        <v>-4</v>
-      </c>
-      <c r="I11">
-        <v>-3</v>
-      </c>
-      <c r="J11">
-        <v>52</v>
-      </c>
-      <c r="K11">
-        <v>45</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="1"/>
-        <v>WIN</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12">
-        <v>-12</v>
-      </c>
-      <c r="I12">
-        <v>-7</v>
-      </c>
-      <c r="J12">
-        <v>54</v>
-      </c>
-      <c r="K12">
-        <v>48</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="1"/>
-        <v>LOSS</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>-2</v>
-      </c>
-      <c r="I13">
-        <v>-7</v>
-      </c>
-      <c r="J13">
-        <v>60</v>
-      </c>
-      <c r="K13">
-        <v>52.5</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="1"/>
-        <v>LOSS</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>29</v>
-      </c>
-      <c r="E14">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14">
-        <v>-3</v>
-      </c>
-      <c r="I14">
-        <v>-6.5</v>
-      </c>
-      <c r="J14">
-        <v>35</v>
-      </c>
-      <c r="K14">
-        <v>38.5</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="1"/>
-        <v>WIN</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0268A11-C6B6-4205-835F-8D0DC9D67ED8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2653,28 +2763,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>COUNTIF(Archive!G2:G32,"WIN")</f>
-        <v>4</v>
+        <f>COUNTIF(Results!H2:H32,"WIN")</f>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Archive!G2:G32,"LOSS")</f>
-        <v>9</v>
+        <f>COUNTIF(Results!H2:H32,"LOSS")</f>
+        <v>17</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.308</v>
+        <v>0.37</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Archive!O2:O32,"WIN")</f>
-        <v>6</v>
+        <f>COUNTIF(Results!P2:P32,"WIN")</f>
+        <v>13</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Archive!O2:O32,"LOSS")</f>
-        <v>7</v>
+        <f>COUNTIF(Results!P2:P32,"LOSS")</f>
+        <v>14</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46200000000000002</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895C3CF-7684-4706-B3CF-14E867B4C81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C547D-21CA-4E42-BF65-2D375D28C75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -320,12 +320,6 @@
     <t>Buffalo -7</t>
   </si>
   <si>
-    <t>Minnesota -2</t>
-  </si>
-  <si>
-    <t>Baltimore -6</t>
-  </si>
-  <si>
     <t>Carolina -3.5</t>
   </si>
   <si>
@@ -344,10 +338,16 @@
     <t>Waiting on Injury Report</t>
   </si>
   <si>
-    <t>Pittsburgh +5.5</t>
-  </si>
-  <si>
     <t>Tampa Bay -11.5</t>
+  </si>
+  <si>
+    <t>Minnesota +2</t>
+  </si>
+  <si>
+    <t>Baltimore -5</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers -5.5</t>
   </si>
 </sst>
 </file>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,10 +834,10 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -846,13 +846,13 @@
         <v>90</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I3">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -863,13 +863,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="F4">
         <v>-7</v>
@@ -878,7 +878,7 @@
         <v>93</v>
       </c>
       <c r="H4">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -895,22 +895,22 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>49</v>
@@ -927,28 +927,28 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>-11</v>
@@ -971,16 +971,16 @@
         <v>-3.5</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -991,28 +991,28 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>-11.5</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>43.5</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1023,22 +1023,22 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="F9">
         <v>-10</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>44.5</v>
@@ -1055,10 +1055,10 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>-1.5</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I10">
         <v>43</v>
@@ -1087,13 +1087,13 @@
         <v>46</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1102,13 +1102,13 @@
         <v>91</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>44.5</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1119,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>92</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I12">
         <v>49.5</v>
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>-2.5</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <v>56</v>
@@ -1189,7 +1189,7 @@
         <v>2.5</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="F15">
         <v>-5.5</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15">
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1241,22 +1241,22 @@
         <v>69</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="F16">
         <v>-11.5</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I16">
         <v>49.5</v>
@@ -2728,7 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0268A11-C6B6-4205-835F-8D0DC9D67ED8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C547D-21CA-4E42-BF65-2D375D28C75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC3ECBE-4D07-49C4-B0A2-466A0F1BD3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -344,10 +344,10 @@
     <t>Minnesota +2</t>
   </si>
   <si>
-    <t>Baltimore -5</t>
-  </si>
-  <si>
     <t>Los Angeles Chargers -5.5</t>
+  </si>
+  <si>
+    <t>Baltimore -1.5</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -927,25 +927,25 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>-6</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>68</v>
@@ -1221,7 +1221,7 @@
         <v>-5.5</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15">
         <v>45</v>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC3ECBE-4D07-49C4-B0A2-466A0F1BD3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BEB74E-5507-478B-A5F8-B070467968FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
@@ -335,9 +335,6 @@
     <t>Dallas -2.5</t>
   </si>
   <si>
-    <t>Waiting on Injury Report</t>
-  </si>
-  <si>
     <t>Tampa Bay -11.5</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Baltimore -1.5</t>
+  </si>
+  <si>
+    <t>Arizona +3</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6">
         <v>32</v>
@@ -1182,17 +1182,23 @@
       <c r="B14" t="s">
         <v>71</v>
       </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
       <c r="E14">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>2.5</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>48</v>
@@ -1221,7 +1227,7 @@
         <v>-5.5</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15">
         <v>45</v>
@@ -1253,7 +1259,7 @@
         <v>-11.5</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16">
         <v>58</v>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BEB74E-5507-478B-A5F8-B070467968FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F0555-2CFD-4771-8253-0D5F57C5769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="118">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -348,6 +348,48 @@
   </si>
   <si>
     <t>Arizona +3</t>
+  </si>
+  <si>
+    <t>Detroit +3</t>
+  </si>
+  <si>
+    <t>Jacksonville +2.5</t>
+  </si>
+  <si>
+    <t>Indianapolis +3</t>
+  </si>
+  <si>
+    <t>Denver +2.5</t>
+  </si>
+  <si>
+    <t>Dallas -7.5</t>
+  </si>
+  <si>
+    <t>Buffalo -6</t>
+  </si>
+  <si>
+    <t>Philadelphia -3.5</t>
+  </si>
+  <si>
+    <t>San Francisco -3</t>
+  </si>
+  <si>
+    <t>Cincinnati -4.5</t>
+  </si>
+  <si>
+    <t>Baltimore -3.5</t>
+  </si>
+  <si>
+    <t>New York Jets +2.5</t>
+  </si>
+  <si>
+    <t>Carolina -2</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams -1</t>
+  </si>
+  <si>
+    <t>Washington -1</t>
   </si>
 </sst>
 </file>
@@ -742,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,95 +835,95 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
       <c r="F2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>47</v>
+        <v>41.5</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>-20</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>-7.5</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>51.5</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>-20</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>45.5</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
@@ -889,63 +931,63 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>-4.5</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
       <c r="E6">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>-2.5</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>44.5</v>
       </c>
       <c r="J6" t="s">
         <v>68</v>
@@ -953,31 +995,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>-3.5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>68</v>
@@ -985,95 +1027,95 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>-11.5</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I8">
-        <v>43.5</v>
+        <v>45.5</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>-33</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I9">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>-1.5</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>66</v>
@@ -1081,63 +1123,63 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I11">
-        <v>44.5</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H12">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I12">
-        <v>49.5</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
         <v>66</v>
@@ -1145,31 +1187,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>-2.5</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I13">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
         <v>66</v>
@@ -1177,98 +1219,98 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>38</v>
+        <v>-3</v>
       </c>
       <c r="F14">
-        <v>2.5</v>
+        <v>-3</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>-9</v>
       </c>
       <c r="F15">
-        <v>-5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>-26</v>
+        <v>-1</v>
       </c>
       <c r="F16">
-        <v>-11.5</v>
+        <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I16">
-        <v>49.5</v>
+        <v>46.5</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1278,10 +1320,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6AE3A-BD10-4395-A680-AB7F59500C66}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2725,6 +2769,711 @@
         <v>53</v>
       </c>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>47</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>47</v>
+      </c>
+      <c r="L30">
+        <v>45</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31">
+        <v>-15</v>
+      </c>
+      <c r="J31">
+        <v>-7</v>
+      </c>
+      <c r="K31">
+        <v>53</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>56</v>
+      </c>
+      <c r="N31" t="s">
+        <v>93</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>22</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>44</v>
+      </c>
+      <c r="L32">
+        <v>49</v>
+      </c>
+      <c r="M32">
+        <v>65</v>
+      </c>
+      <c r="N32" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>27</v>
+      </c>
+      <c r="G33">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>4.5</v>
+      </c>
+      <c r="K33">
+        <v>48</v>
+      </c>
+      <c r="L33">
+        <v>45</v>
+      </c>
+      <c r="M33">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34">
+        <v>-11</v>
+      </c>
+      <c r="J34">
+        <v>-3.5</v>
+      </c>
+      <c r="K34">
+        <v>45</v>
+      </c>
+      <c r="L34">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>48</v>
+      </c>
+      <c r="N34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35">
+        <v>-14</v>
+      </c>
+      <c r="J35">
+        <v>-11.5</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>43.5</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35" t="s">
+        <v>95</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36">
+        <v>-22</v>
+      </c>
+      <c r="J36">
+        <v>-10</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>44.5</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>96</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>-1.5</v>
+      </c>
+      <c r="K37">
+        <v>50</v>
+      </c>
+      <c r="L37">
+        <v>43</v>
+      </c>
+      <c r="M37">
+        <v>69</v>
+      </c>
+      <c r="N37" t="s">
+        <v>97</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>23</v>
+      </c>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>50</v>
+      </c>
+      <c r="L38">
+        <v>44.5</v>
+      </c>
+      <c r="M38">
+        <v>41</v>
+      </c>
+      <c r="N38" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>32</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>29</v>
+      </c>
+      <c r="G39">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>55</v>
+      </c>
+      <c r="L39">
+        <v>49.5</v>
+      </c>
+      <c r="M39">
+        <v>45</v>
+      </c>
+      <c r="N39" t="s">
+        <v>92</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>-2.5</v>
+      </c>
+      <c r="K40">
+        <v>60</v>
+      </c>
+      <c r="L40">
+        <v>56</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>2.5</v>
+      </c>
+      <c r="K41">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>48</v>
+      </c>
+      <c r="M41">
+        <v>36</v>
+      </c>
+      <c r="N41" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>22</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42">
+        <v>-3</v>
+      </c>
+      <c r="J42">
+        <v>-5.5</v>
+      </c>
+      <c r="K42">
+        <v>47</v>
+      </c>
+      <c r="L42">
+        <v>47</v>
+      </c>
+      <c r="M42">
+        <v>78</v>
+      </c>
+      <c r="N42" t="s">
+        <v>101</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43">
+        <v>-15</v>
+      </c>
+      <c r="J43">
+        <v>-11.5</v>
+      </c>
+      <c r="K43">
+        <v>55</v>
+      </c>
+      <c r="L43">
+        <v>49.5</v>
+      </c>
+      <c r="M43">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2735,7 +3484,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2769,28 +3518,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>COUNTIF(Results!H2:H32,"WIN")</f>
-        <v>10</v>
+        <f>COUNTIF(Results!H2:H72,"WIN")</f>
+        <v>19</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Results!H2:H32,"LOSS")</f>
-        <v>17</v>
+        <f>COUNTIF(Results!H2:H72,"LOSS")</f>
+        <v>23</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.37</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Results!P2:P32,"WIN")</f>
-        <v>13</v>
+        <f>COUNTIF(Results!P2:P72,"WIN")</f>
+        <v>18</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Results!P2:P32,"LOSS")</f>
-        <v>14</v>
+        <f>COUNTIF(Results!P2:P72,"LOSS")</f>
+        <v>24</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.48099999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F0555-2CFD-4771-8253-0D5F57C5769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B75E4D-65E1-4010-910F-88D1744AF1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="134">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -390,6 +390,54 @@
   </si>
   <si>
     <t>Washington -1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Dallas -4.5</t>
+  </si>
+  <si>
+    <t>Minnesota -7</t>
+  </si>
+  <si>
+    <t>Tampa Bay -11</t>
+  </si>
+  <si>
+    <t>Indianapolis -9</t>
+  </si>
+  <si>
+    <t>Philadelphia -6.5</t>
+  </si>
+  <si>
+    <t>San Francisco -3.5</t>
+  </si>
+  <si>
+    <t>Arizona -7.5</t>
+  </si>
+  <si>
+    <t>Cincinnati -3</t>
+  </si>
+  <si>
+    <t>New York Giants +5</t>
+  </si>
+  <si>
+    <t>Denver +8</t>
+  </si>
+  <si>
+    <t>Las Vegas -2.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams -13</t>
+  </si>
+  <si>
+    <t>Baltimore -4.5</t>
+  </si>
+  <si>
+    <t>Buffalo -2.5</t>
   </si>
 </sst>
 </file>
@@ -782,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,95 +883,95 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H2">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I2">
-        <v>41.5</v>
+        <v>47.5</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>-7.5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>51.5</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4">
-        <v>45.5</v>
+        <v>50.5</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
@@ -931,159 +979,159 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>-16</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>-4.5</v>
+        <v>7.5</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>45</v>
+        <v>46.5</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>-2.5</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>-15</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H7">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I7">
-        <v>42</v>
+        <v>50.5</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="F8">
-        <v>3.5</v>
+        <v>-5</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I8">
-        <v>45.5</v>
+        <v>41.5</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="F9">
-        <v>2.5</v>
+        <v>-10</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
         <v>68</v>
@@ -1091,31 +1139,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>6.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
         <v>45</v>
-      </c>
-      <c r="C10">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10">
-        <v>72</v>
-      </c>
-      <c r="I10">
-        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>66</v>
@@ -1123,31 +1171,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="F11">
-        <v>-7</v>
+        <v>-2.5</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
         <v>66</v>
@@ -1155,63 +1203,63 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>-28</v>
       </c>
       <c r="F12">
-        <v>2.5</v>
+        <v>-13</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I12">
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="C13">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I13">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>66</v>
@@ -1219,98 +1267,66 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>-3</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I14">
-        <v>49</v>
+        <v>45.5</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F15">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I15">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16">
-        <v>39</v>
-      </c>
-      <c r="I16">
-        <v>46.5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1320,12 +1336,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6AE3A-BD10-4395-A680-AB7F59500C66}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
+      <selection pane="bottomLeft" activeCell="P44" sqref="P44:P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2770,6 +2786,9 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -2817,6 +2836,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
@@ -2864,6 +2886,9 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -2911,6 +2936,9 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +2985,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3035,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
       <c r="B34" t="s">
         <v>70</v>
       </c>
@@ -3051,7 +3085,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
@@ -3098,7 +3135,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
@@ -3145,7 +3185,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -3192,7 +3235,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
@@ -3239,7 +3285,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3335,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
       <c r="B40" t="s">
         <v>15</v>
       </c>
@@ -3333,7 +3385,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -3380,7 +3435,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3485,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
@@ -3472,6 +3533,756 @@
       </c>
       <c r="P43" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>26</v>
+      </c>
+      <c r="L44">
+        <v>41.5</v>
+      </c>
+      <c r="M44">
+        <v>30</v>
+      </c>
+      <c r="N44" t="s">
+        <v>104</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>33</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45">
+        <v>-20</v>
+      </c>
+      <c r="J45">
+        <v>-7.5</v>
+      </c>
+      <c r="K45">
+        <v>60</v>
+      </c>
+      <c r="L45">
+        <v>51.5</v>
+      </c>
+      <c r="M45">
+        <v>69</v>
+      </c>
+      <c r="N45" t="s">
+        <v>108</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>59</v>
+      </c>
+      <c r="L46">
+        <v>45.5</v>
+      </c>
+      <c r="M46">
+        <v>37</v>
+      </c>
+      <c r="N46" t="s">
+        <v>109</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47">
+        <v>-16</v>
+      </c>
+      <c r="J47">
+        <v>-4.5</v>
+      </c>
+      <c r="K47">
+        <v>52</v>
+      </c>
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>51</v>
+      </c>
+      <c r="N47" t="s">
+        <v>112</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>-2</v>
+      </c>
+      <c r="J48">
+        <v>-2.5</v>
+      </c>
+      <c r="K48">
+        <v>36</v>
+      </c>
+      <c r="L48">
+        <v>44.5</v>
+      </c>
+      <c r="M48">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
+        <v>114</v>
+      </c>
+      <c r="O48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>31</v>
+      </c>
+      <c r="L49">
+        <v>42</v>
+      </c>
+      <c r="M49">
+        <v>43</v>
+      </c>
+      <c r="N49" t="s">
+        <v>115</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <v>3.5</v>
+      </c>
+      <c r="K50">
+        <v>48</v>
+      </c>
+      <c r="L50">
+        <v>45.5</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50" t="s">
+        <v>110</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+      <c r="J51">
+        <v>2.5</v>
+      </c>
+      <c r="K51">
+        <v>33</v>
+      </c>
+      <c r="L51">
+        <v>46</v>
+      </c>
+      <c r="M51">
+        <v>35</v>
+      </c>
+      <c r="N51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>38</v>
+      </c>
+      <c r="E52">
+        <v>31</v>
+      </c>
+      <c r="F52">
+        <v>37</v>
+      </c>
+      <c r="G52">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>72</v>
+      </c>
+      <c r="L52">
+        <v>53</v>
+      </c>
+      <c r="M52">
+        <v>69</v>
+      </c>
+      <c r="N52" t="s">
+        <v>106</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>36</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+      <c r="G53">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53">
+        <v>-12</v>
+      </c>
+      <c r="J53">
+        <v>-7</v>
+      </c>
+      <c r="K53">
+        <v>54</v>
+      </c>
+      <c r="L53">
+        <v>44</v>
+      </c>
+      <c r="M53">
+        <v>49</v>
+      </c>
+      <c r="N53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>28</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2.5</v>
+      </c>
+      <c r="K54">
+        <v>49</v>
+      </c>
+      <c r="L54">
+        <v>48</v>
+      </c>
+      <c r="M54">
+        <v>41</v>
+      </c>
+      <c r="N54" t="s">
+        <v>107</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>36</v>
+      </c>
+      <c r="F55">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>53</v>
+      </c>
+      <c r="L55">
+        <v>47</v>
+      </c>
+      <c r="M55">
+        <v>64</v>
+      </c>
+      <c r="N55" t="s">
+        <v>116</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>34</v>
+      </c>
+      <c r="F56">
+        <v>26</v>
+      </c>
+      <c r="G56">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56">
+        <v>-3</v>
+      </c>
+      <c r="J56">
+        <v>-3</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+      <c r="L56">
+        <v>49</v>
+      </c>
+      <c r="M56">
+        <v>60</v>
+      </c>
+      <c r="N56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57">
+        <v>-9</v>
+      </c>
+      <c r="J57">
+        <v>-3.5</v>
+      </c>
+      <c r="K57">
+        <v>51</v>
+      </c>
+      <c r="L57">
+        <v>46</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57" t="s">
+        <v>113</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58">
+        <v>-1</v>
+      </c>
+      <c r="J58">
+        <v>-1</v>
+      </c>
+      <c r="K58">
+        <v>39</v>
+      </c>
+      <c r="L58">
+        <v>46.5</v>
+      </c>
+      <c r="M58">
+        <v>32</v>
+      </c>
+      <c r="N58" t="s">
+        <v>117</v>
+      </c>
+      <c r="O58" t="s">
+        <v>68</v>
+      </c>
+      <c r="P58" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3484,7 +4295,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3519,27 +4330,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Results!H2:H72,"WIN")</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Results!H2:H72,"LOSS")</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45200000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Results!P2:P72,"WIN")</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Results!P2:P72,"LOSS")</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.42899999999999999</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B75E4D-65E1-4010-910F-88D1744AF1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B207F1-4DF6-4144-B016-E8C00C5F0A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-28920" yWindow="1290" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -410,9 +410,6 @@
     <t>Indianapolis -9</t>
   </si>
   <si>
-    <t>Philadelphia -6.5</t>
-  </si>
-  <si>
     <t>San Francisco -3.5</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>Cincinnati -3</t>
   </si>
   <si>
-    <t>New York Giants +5</t>
-  </si>
-  <si>
     <t>Denver +8</t>
   </si>
   <si>
@@ -438,6 +432,12 @@
   </si>
   <si>
     <t>Buffalo -2.5</t>
+  </si>
+  <si>
+    <t>Philadelphia -5.5</t>
+  </si>
+  <si>
+    <t>Miami -6.5</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,7 +939,7 @@
         <v>45</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="J3" t="s">
         <v>68</v>
@@ -997,7 +997,7 @@
         <v>7.5</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5">
         <v>41</v>
@@ -1061,7 +1061,7 @@
         <v>-3</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7">
         <v>65</v>
@@ -1081,19 +1081,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="F8">
-        <v>-5</v>
+        <v>-6.5</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H8">
         <v>32</v>
@@ -1125,7 +1125,7 @@
         <v>-10</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>44</v>
@@ -1145,7 +1145,7 @@
         <v>46</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>17</v>
@@ -1154,16 +1154,16 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>66</v>
@@ -1189,7 +1189,7 @@
         <v>-2.5</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11">
         <v>51</v>
@@ -1221,7 +1221,7 @@
         <v>-13</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12">
         <v>46</v>
@@ -1253,7 +1253,7 @@
         <v>4.5</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H13">
         <v>47</v>
@@ -1285,7 +1285,7 @@
         <v>3.5</v>
       </c>
       <c r="G14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14">
         <v>41</v>
@@ -1317,7 +1317,7 @@
         <v>-3</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H15">
         <v>57</v>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B207F1-4DF6-4144-B016-E8C00C5F0A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD3DA1-4D5E-43D8-BDC9-584EFC99F6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1290" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="135">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -398,46 +398,49 @@
     <t>11</t>
   </si>
   <si>
-    <t>Dallas -4.5</t>
-  </si>
-  <si>
-    <t>Minnesota -7</t>
-  </si>
-  <si>
-    <t>Tampa Bay -11</t>
-  </si>
-  <si>
-    <t>Indianapolis -9</t>
-  </si>
-  <si>
-    <t>San Francisco -3.5</t>
-  </si>
-  <si>
-    <t>Arizona -7.5</t>
-  </si>
-  <si>
-    <t>Cincinnati -3</t>
-  </si>
-  <si>
-    <t>Denver +8</t>
-  </si>
-  <si>
-    <t>Las Vegas -2.5</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams -13</t>
-  </si>
-  <si>
-    <t>Baltimore -4.5</t>
-  </si>
-  <si>
-    <t>Buffalo -2.5</t>
-  </si>
-  <si>
-    <t>Philadelphia -5.5</t>
-  </si>
-  <si>
-    <t>Miami -6.5</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Minnesota -3</t>
+  </si>
+  <si>
+    <t>Carolina -2.5</t>
+  </si>
+  <si>
+    <t>Kansas City -9.5</t>
+  </si>
+  <si>
+    <t>Tennessee -8.5</t>
+  </si>
+  <si>
+    <t>Denver -8.5</t>
+  </si>
+  <si>
+    <t>Green Bay -12.5</t>
+  </si>
+  <si>
+    <t>Arizona -2.5</t>
+  </si>
+  <si>
+    <t>New Orleans -6</t>
+  </si>
+  <si>
+    <t>Baltimore -1</t>
+  </si>
+  <si>
+    <t>Dallas -4</t>
+  </si>
+  <si>
+    <t>Seattle -7.5</t>
+  </si>
+  <si>
+    <t>Cincinnati +1</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers -10</t>
+  </si>
+  <si>
+    <t>Buffalo +3.5</t>
   </si>
 </sst>
 </file>
@@ -832,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,6 +848,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
     <col min="9" max="9" width="13.6328125" customWidth="1"/>
     <col min="10" max="10" width="19.26953125" customWidth="1"/>
   </cols>
@@ -883,31 +887,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>-12</v>
       </c>
       <c r="F2">
-        <v>4.5</v>
+        <v>-3</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I2">
-        <v>47.5</v>
+        <v>43.5</v>
       </c>
       <c r="J2" t="s">
         <v>66</v>
@@ -915,31 +919,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>-13</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>-2.5</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="J3" t="s">
         <v>68</v>
@@ -947,31 +951,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I4">
-        <v>50.5</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
         <v>66</v>
@@ -979,63 +983,63 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>34</v>
-      </c>
       <c r="D5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>46.5</v>
+        <v>42.5</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H6">
+        <v>56</v>
+      </c>
+      <c r="I6">
         <v>48</v>
-      </c>
-      <c r="I6">
-        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>66</v>
@@ -1043,31 +1047,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F7">
-        <v>-3</v>
+        <v>-9.5</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I7">
-        <v>50.5</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
@@ -1075,28 +1079,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>-6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I8">
         <v>41.5</v>
@@ -1107,31 +1111,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>-8.5</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I9">
-        <v>47</v>
+        <v>43.5</v>
       </c>
       <c r="J9" t="s">
         <v>68</v>
@@ -1139,31 +1143,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>-9</v>
       </c>
       <c r="F10">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>132</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I10">
-        <v>44</v>
+        <v>48.5</v>
       </c>
       <c r="J10" t="s">
         <v>66</v>
@@ -1171,31 +1175,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="F11">
-        <v>-2.5</v>
+        <v>-10</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>66</v>
@@ -1203,31 +1207,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>37</v>
-      </c>
       <c r="E12">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="F12">
-        <v>-13</v>
+        <v>-8.5</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>68</v>
@@ -1235,31 +1239,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="F13">
-        <v>4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I13">
-        <v>44</v>
+        <v>53.5</v>
       </c>
       <c r="J13" t="s">
         <v>66</v>
@@ -1267,31 +1271,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>-21</v>
       </c>
       <c r="F14">
-        <v>3.5</v>
+        <v>-12.5</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I14">
-        <v>45.5</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
         <v>68</v>
@@ -1299,31 +1303,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="F15">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I15">
-        <v>44</v>
+        <v>51.5</v>
       </c>
       <c r="J15" t="s">
         <v>66</v>
@@ -1336,12 +1340,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6AE3A-BD10-4395-A680-AB7F59500C66}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P44" sqref="P44:P58"/>
+      <selection pane="bottomLeft" activeCell="P59" sqref="P59:P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4283,6 +4287,664 @@
       </c>
       <c r="P58" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <v>34</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>61</v>
+      </c>
+      <c r="L59">
+        <v>47.5</v>
+      </c>
+      <c r="M59">
+        <v>44</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>27</v>
+      </c>
+      <c r="E60">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>31</v>
+      </c>
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I60">
+        <v>17</v>
+      </c>
+      <c r="J60">
+        <v>7</v>
+      </c>
+      <c r="K60">
+        <v>45</v>
+      </c>
+      <c r="L60">
+        <v>47</v>
+      </c>
+      <c r="M60">
+        <v>56</v>
+      </c>
+      <c r="O60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="E61">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>44</v>
+      </c>
+      <c r="G61">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61">
+        <v>27</v>
+      </c>
+      <c r="J61">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>61</v>
+      </c>
+      <c r="L61">
+        <v>50.5</v>
+      </c>
+      <c r="M61">
+        <v>47</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>33</v>
+      </c>
+      <c r="E62">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>34</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62">
+        <v>27</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <v>41</v>
+      </c>
+      <c r="L62">
+        <v>46.5</v>
+      </c>
+      <c r="M62">
+        <v>55</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>31</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>37</v>
+      </c>
+      <c r="G63">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63">
+        <v>26</v>
+      </c>
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>48</v>
+      </c>
+      <c r="L63">
+        <v>46</v>
+      </c>
+      <c r="M63">
+        <v>31</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>41</v>
+      </c>
+      <c r="E64">
+        <v>22</v>
+      </c>
+      <c r="F64">
+        <v>25</v>
+      </c>
+      <c r="G64">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64">
+        <v>-15</v>
+      </c>
+      <c r="J64">
+        <v>-3</v>
+      </c>
+      <c r="K64">
+        <v>65</v>
+      </c>
+      <c r="L64">
+        <v>50.5</v>
+      </c>
+      <c r="M64">
+        <v>63</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65">
+        <v>-4</v>
+      </c>
+      <c r="J65">
+        <v>-3</v>
+      </c>
+      <c r="K65">
+        <v>32</v>
+      </c>
+      <c r="L65">
+        <v>41.5</v>
+      </c>
+      <c r="M65">
+        <v>29</v>
+      </c>
+      <c r="O65" t="s">
+        <v>68</v>
+      </c>
+      <c r="P65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>22</v>
+      </c>
+      <c r="F66">
+        <v>18</v>
+      </c>
+      <c r="G66">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I66">
+        <v>-8</v>
+      </c>
+      <c r="J66">
+        <v>-10</v>
+      </c>
+      <c r="K66">
+        <v>44</v>
+      </c>
+      <c r="L66">
+        <v>47</v>
+      </c>
+      <c r="M66">
+        <v>31</v>
+      </c>
+      <c r="O66" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67">
+        <v>33</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>33</v>
+      </c>
+      <c r="G67">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67">
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <v>6.5</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="L67">
+        <v>45</v>
+      </c>
+      <c r="M67">
+        <v>51</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>21</v>
+      </c>
+      <c r="G68">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>53</v>
+      </c>
+      <c r="I68">
+        <v>-9</v>
+      </c>
+      <c r="J68">
+        <v>-2.5</v>
+      </c>
+      <c r="K68">
+        <v>51</v>
+      </c>
+      <c r="L68">
+        <v>49</v>
+      </c>
+      <c r="M68">
+        <v>32</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>37</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69">
+        <v>-28</v>
+      </c>
+      <c r="J69">
+        <v>-13</v>
+      </c>
+      <c r="K69">
+        <v>46</v>
+      </c>
+      <c r="L69">
+        <v>48</v>
+      </c>
+      <c r="M69">
+        <v>44</v>
+      </c>
+      <c r="O69" t="s">
+        <v>68</v>
+      </c>
+      <c r="P69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+      <c r="F70">
+        <v>27</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>3.5</v>
+      </c>
+      <c r="K70">
+        <v>47</v>
+      </c>
+      <c r="L70">
+        <v>44</v>
+      </c>
+      <c r="M70">
+        <v>39</v>
+      </c>
+      <c r="O70" t="s">
+        <v>66</v>
+      </c>
+      <c r="P70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71">
+        <v>23</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
+      <c r="F71">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>53</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+      <c r="J71">
+        <v>3.5</v>
+      </c>
+      <c r="K71">
+        <v>41</v>
+      </c>
+      <c r="L71">
+        <v>45.5</v>
+      </c>
+      <c r="M71">
+        <v>53</v>
+      </c>
+      <c r="O71" t="s">
+        <v>68</v>
+      </c>
+      <c r="P71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>25</v>
+      </c>
+      <c r="G72">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72">
+        <v>-7</v>
+      </c>
+      <c r="J72">
+        <v>-3</v>
+      </c>
+      <c r="K72">
+        <v>57</v>
+      </c>
+      <c r="L72">
+        <v>44</v>
+      </c>
+      <c r="M72">
+        <v>24</v>
+      </c>
+      <c r="O72" t="s">
+        <v>66</v>
+      </c>
+      <c r="P72" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4330,27 +4992,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Results!H2:H72,"WIN")</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Results!H2:H72,"LOSS")</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.49099999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Results!P2:P72,"WIN")</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Results!P2:P72,"LOSS")</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.49099999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD3DA1-4D5E-43D8-BDC9-584EFC99F6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAEC8E1-ECF5-4165-BEE2-A1A0AF8EAD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="WL Record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="68">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -146,33 +147,9 @@
     <t>Total Prediction</t>
   </si>
   <si>
-    <t>Atlanta +6</t>
-  </si>
-  <si>
     <t>Over</t>
   </si>
   <si>
-    <t>Cincinnati -2.5</t>
-  </si>
-  <si>
-    <t>Jacksonville +14.5</t>
-  </si>
-  <si>
-    <t>Dallas - 10</t>
-  </si>
-  <si>
-    <t>Philadelphia +1.5</t>
-  </si>
-  <si>
-    <t>Kansas City -7</t>
-  </si>
-  <si>
-    <t>Tennessee +7</t>
-  </si>
-  <si>
-    <t>Chicago +6.5</t>
-  </si>
-  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
@@ -200,24 +177,9 @@
     <t>LOSS</t>
   </si>
   <si>
-    <t>Carolina +3.5</t>
-  </si>
-  <si>
-    <t>Houston +5.5</t>
-  </si>
-  <si>
-    <t>Baltimore - 6</t>
-  </si>
-  <si>
-    <t>Las Vegas -3</t>
-  </si>
-  <si>
     <t>Under</t>
   </si>
   <si>
-    <t>San Francisco -4</t>
-  </si>
-  <si>
     <t>Spread Win</t>
   </si>
   <si>
@@ -257,48 +219,6 @@
     <t>Prediction Visitor</t>
   </si>
   <si>
-    <t>Las Vegas +2.5</t>
-  </si>
-  <si>
-    <t>Dallas - 9</t>
-  </si>
-  <si>
-    <t>Indianapolis -10</t>
-  </si>
-  <si>
-    <t>Arizona - 10</t>
-  </si>
-  <si>
-    <t>Baltimore -7.5</t>
-  </si>
-  <si>
-    <t>Pittsburgh -16</t>
-  </si>
-  <si>
-    <t>Tampa Bay - 9.5</t>
-  </si>
-  <si>
-    <t>Buffalo -12</t>
-  </si>
-  <si>
-    <t>New England -7</t>
-  </si>
-  <si>
-    <t>New Orleans +3</t>
-  </si>
-  <si>
-    <t>Minnesota +3</t>
-  </si>
-  <si>
-    <t>Denver -3</t>
-  </si>
-  <si>
-    <t>Green Bay -3</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams -4</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -308,90 +228,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>San Francisco -6</t>
-  </si>
-  <si>
-    <t>Miami -3</t>
-  </si>
-  <si>
-    <t>Cincinnati -1</t>
-  </si>
-  <si>
-    <t>Buffalo -7</t>
-  </si>
-  <si>
-    <t>Carolina -3.5</t>
-  </si>
-  <si>
-    <t>Cleveland -11.5</t>
-  </si>
-  <si>
-    <t>Tennessee - 10</t>
-  </si>
-  <si>
-    <t>New Orleans +1.5</t>
-  </si>
-  <si>
-    <t>Dallas -2.5</t>
-  </si>
-  <si>
-    <t>Tampa Bay -11.5</t>
-  </si>
-  <si>
-    <t>Minnesota +2</t>
-  </si>
-  <si>
-    <t>Los Angeles Chargers -5.5</t>
-  </si>
-  <si>
-    <t>Baltimore -1.5</t>
-  </si>
-  <si>
-    <t>Arizona +3</t>
-  </si>
-  <si>
-    <t>Detroit +3</t>
-  </si>
-  <si>
-    <t>Jacksonville +2.5</t>
-  </si>
-  <si>
-    <t>Indianapolis +3</t>
-  </si>
-  <si>
-    <t>Denver +2.5</t>
-  </si>
-  <si>
-    <t>Dallas -7.5</t>
-  </si>
-  <si>
-    <t>Buffalo -6</t>
-  </si>
-  <si>
-    <t>Philadelphia -3.5</t>
-  </si>
-  <si>
-    <t>San Francisco -3</t>
-  </si>
-  <si>
-    <t>Cincinnati -4.5</t>
-  </si>
-  <si>
-    <t>Baltimore -3.5</t>
-  </si>
-  <si>
-    <t>New York Jets +2.5</t>
-  </si>
-  <si>
-    <t>Carolina -2</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams -1</t>
-  </si>
-  <si>
-    <t>Washington -1</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -401,46 +237,10 @@
     <t>13</t>
   </si>
   <si>
-    <t>Minnesota -3</t>
-  </si>
-  <si>
-    <t>Carolina -2.5</t>
-  </si>
-  <si>
-    <t>Kansas City -9.5</t>
-  </si>
-  <si>
-    <t>Tennessee -8.5</t>
-  </si>
-  <si>
-    <t>Denver -8.5</t>
-  </si>
-  <si>
-    <t>Green Bay -12.5</t>
-  </si>
-  <si>
-    <t>Arizona -2.5</t>
-  </si>
-  <si>
-    <t>New Orleans -6</t>
-  </si>
-  <si>
-    <t>Baltimore -1</t>
-  </si>
-  <si>
-    <t>Dallas -4</t>
-  </si>
-  <si>
-    <t>Seattle -7.5</t>
-  </si>
-  <si>
-    <t>Cincinnati +1</t>
-  </si>
-  <si>
-    <t>Los Angeles Chargers -10</t>
-  </si>
-  <si>
-    <t>Buffalo +3.5</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers +3</t>
   </si>
 </sst>
 </file>
@@ -833,27 +633,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -861,7 +661,7 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
@@ -885,452 +685,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>32</v>
       </c>
       <c r="E2">
-        <v>-12</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="H2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I2">
-        <v>43.5</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>-13</v>
-      </c>
-      <c r="F3">
-        <v>-2.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>42.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4">
-        <v>48</v>
-      </c>
-      <c r="I4">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5">
-        <v>45</v>
-      </c>
-      <c r="I5">
-        <v>42.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6">
-        <v>56</v>
-      </c>
-      <c r="I6">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>-11</v>
-      </c>
-      <c r="F7">
-        <v>-9.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>7.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8">
-        <v>27</v>
-      </c>
-      <c r="I8">
-        <v>41.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>-25</v>
-      </c>
-      <c r="F9">
-        <v>-8.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9">
-        <v>41</v>
-      </c>
-      <c r="I9">
-        <v>43.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>-9</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10">
-        <v>63</v>
-      </c>
-      <c r="I10">
-        <v>48.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>-18</v>
-      </c>
-      <c r="F11">
-        <v>-10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>-16</v>
-      </c>
-      <c r="F12">
-        <v>-8.5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>-3</v>
-      </c>
-      <c r="F13">
-        <v>-3.5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13">
-        <v>69</v>
-      </c>
-      <c r="I13">
-        <v>53.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>-21</v>
-      </c>
-      <c r="F14">
-        <v>-12.5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14">
-        <v>35</v>
-      </c>
-      <c r="I14">
-        <v>43</v>
-      </c>
-      <c r="J14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>-8</v>
-      </c>
-      <c r="F15">
-        <v>-2.5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15">
-        <v>66</v>
-      </c>
-      <c r="I15">
-        <v>51.5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1340,32 +724,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6AE3A-BD10-4395-A680-AB7F59500C66}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P59" sqref="P59:P72"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="5" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="8" width="16.81640625" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
-    <col min="12" max="13" width="16.7265625" customWidth="1"/>
-    <col min="14" max="14" width="19.26953125" customWidth="1"/>
-    <col min="15" max="15" width="17.7265625" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
@@ -1374,10 +757,10 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
@@ -1386,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>30</v>
@@ -1401,21 +784,18 @@
         <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1436,7 +816,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1457,17 +837,14 @@
       <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="str">
+      <c r="O2" t="str">
         <f>IF(M2&gt;L2,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1488,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -1507,19 +884,16 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P14" si="1">IF(M3&gt;L3,"WIN","LOSS")</f>
+        <v>36</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O14" si="1">IF(M3&gt;L3,"WIN","LOSS")</f>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1540,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I4">
         <v>-5</v>
@@ -1559,19 +933,16 @@
         <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="str">
+        <v>36</v>
+      </c>
+      <c r="O4" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1592,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>-5</v>
@@ -1611,19 +982,16 @@
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="str">
+        <v>36</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1644,7 +1012,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <v>-7</v>
@@ -1663,19 +1031,16 @@
         <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="str">
+        <v>36</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1696,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1715,19 +1080,16 @@
         <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="str">
+        <v>36</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1748,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1767,19 +1129,16 @@
         <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="str">
+        <v>36</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1800,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>-22</v>
@@ -1819,19 +1178,16 @@
         <v>46</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="str">
+        <v>46</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1852,7 +1208,7 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>-3</v>
@@ -1871,19 +1227,16 @@
         <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" t="str">
+        <v>36</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1904,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>-4</v>
@@ -1923,19 +1276,16 @@
         <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" t="str">
+        <v>36</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1956,7 +1306,7 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I12">
         <v>-12</v>
@@ -1975,19 +1325,16 @@
         <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="str">
+        <v>36</v>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -2008,7 +1355,7 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>-2</v>
@@ -2027,19 +1374,16 @@
         <v>44</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" t="str">
+        <v>36</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="1"/>
         <v>LOSS</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -2060,7 +1404,7 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>-3</v>
@@ -2079,19 +1423,16 @@
         <v>56</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" t="str">
+        <v>46</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="1"/>
         <v>WIN</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -2112,7 +1453,7 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -2130,21 +1471,18 @@
         <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -2162,7 +1500,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -2180,18 +1518,15 @@
         <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -2212,7 +1547,7 @@
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <v>-11</v>
@@ -2230,24 +1565,21 @@
         <v>46</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>19</v>
@@ -2262,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -2280,24 +1612,21 @@
         <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>45</v>
@@ -2312,7 +1641,7 @@
         <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I19">
         <v>-10</v>
@@ -2330,18 +1659,15 @@
         <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -2362,7 +1688,7 @@
         <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2380,18 +1706,15 @@
         <v>52</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -2412,7 +1735,7 @@
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>-13</v>
@@ -2430,24 +1753,21 @@
         <v>44</v>
       </c>
       <c r="N21" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2462,7 +1782,7 @@
         <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I22">
         <v>-15</v>
@@ -2480,18 +1800,15 @@
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2512,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I23">
         <v>-17</v>
@@ -2530,18 +1847,15 @@
         <v>44</v>
       </c>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="O23" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2562,7 +1876,7 @@
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I24">
         <v>-6</v>
@@ -2580,18 +1894,15 @@
         <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -2612,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I25">
         <v>15</v>
@@ -2630,21 +1941,18 @@
         <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
-      </c>
-      <c r="P25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2662,7 +1970,7 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I26">
         <v>-2</v>
@@ -2680,18 +1988,15 @@
         <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -2712,7 +2017,7 @@
         <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I27">
         <v>-2</v>
@@ -2730,18 +2035,15 @@
         <v>55</v>
       </c>
       <c r="N27" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
-      </c>
-      <c r="P27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -2762,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I28">
         <v>7</v>
@@ -2780,18 +2082,15 @@
         <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -2812,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I29">
         <v>16</v>
@@ -2830,18 +2129,15 @@
         <v>25</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
-      </c>
-      <c r="P29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -2862,7 +2158,7 @@
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I30">
         <v>7</v>
@@ -2880,21 +2176,18 @@
         <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2912,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I31">
         <v>-15</v>
@@ -2930,18 +2223,15 @@
         <v>56</v>
       </c>
       <c r="N31" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2962,7 +2252,7 @@
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2980,18 +2270,15 @@
         <v>65</v>
       </c>
       <c r="N32" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
-      </c>
-      <c r="P32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -3012,7 +2299,7 @@
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I33">
         <v>6</v>
@@ -3030,21 +2317,18 @@
         <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
-      </c>
-      <c r="P33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -3062,7 +2346,7 @@
         <v>28</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I34">
         <v>-11</v>
@@ -3080,21 +2364,18 @@
         <v>48</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
-      </c>
-      <c r="P34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -3112,7 +2393,7 @@
         <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I35">
         <v>-14</v>
@@ -3130,18 +2411,15 @@
         <v>23</v>
       </c>
       <c r="N35" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
-      </c>
-      <c r="P35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -3162,7 +2440,7 @@
         <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I36">
         <v>-22</v>
@@ -3180,18 +2458,15 @@
         <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="O36" t="s">
-        <v>66</v>
-      </c>
-      <c r="P36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -3212,7 +2487,7 @@
         <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3230,24 +2505,21 @@
         <v>69</v>
       </c>
       <c r="N37" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
-      </c>
-      <c r="P37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -3262,7 +2534,7 @@
         <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I38">
         <v>4</v>
@@ -3280,18 +2552,15 @@
         <v>41</v>
       </c>
       <c r="N38" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
-      </c>
-      <c r="P38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -3312,7 +2581,7 @@
         <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -3330,18 +2599,15 @@
         <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -3362,7 +2628,7 @@
         <v>28</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -3380,24 +2646,21 @@
         <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D41">
         <v>23</v>
@@ -3412,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I41">
         <v>6</v>
@@ -3430,18 +2693,15 @@
         <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="O41" t="s">
-        <v>68</v>
-      </c>
-      <c r="P41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -3462,7 +2722,7 @@
         <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I42">
         <v>-3</v>
@@ -3480,24 +2740,21 @@
         <v>78</v>
       </c>
       <c r="N42" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
-      </c>
-      <c r="P42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -3512,7 +2769,7 @@
         <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I43">
         <v>-15</v>
@@ -3530,24 +2787,21 @@
         <v>40</v>
       </c>
       <c r="N43" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
-      </c>
-      <c r="P43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D44">
         <v>16</v>
@@ -3562,7 +2816,7 @@
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3580,18 +2834,15 @@
         <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
-      </c>
-      <c r="P44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -3612,7 +2863,7 @@
         <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I45">
         <v>-20</v>
@@ -3630,18 +2881,15 @@
         <v>69</v>
       </c>
       <c r="N45" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -3662,7 +2910,7 @@
         <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I46">
         <v>9</v>
@@ -3680,18 +2928,15 @@
         <v>37</v>
       </c>
       <c r="N46" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
-      </c>
-      <c r="P46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -3712,7 +2957,7 @@
         <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I47">
         <v>-16</v>
@@ -3730,21 +2975,18 @@
         <v>51</v>
       </c>
       <c r="N47" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
-      </c>
-      <c r="P47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -3762,7 +3004,7 @@
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I48">
         <v>-2</v>
@@ -3780,18 +3022,15 @@
         <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="O48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -3812,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I49">
         <v>7</v>
@@ -3830,18 +3069,15 @@
         <v>43</v>
       </c>
       <c r="N49" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
-      </c>
-      <c r="P49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -3862,7 +3098,7 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I50">
         <v>12</v>
@@ -3880,18 +3116,15 @@
         <v>20</v>
       </c>
       <c r="N50" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="O50" t="s">
-        <v>66</v>
-      </c>
-      <c r="P50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
@@ -3912,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I51">
         <v>-1</v>
@@ -3930,24 +3163,21 @@
         <v>35</v>
       </c>
       <c r="N51" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
-      </c>
-      <c r="P51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D52">
         <v>38</v>
@@ -3962,7 +3192,7 @@
         <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3980,18 +3210,15 @@
         <v>69</v>
       </c>
       <c r="N52" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
-      </c>
-      <c r="P52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -4012,7 +3239,7 @@
         <v>33</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I53">
         <v>-12</v>
@@ -4030,18 +3257,15 @@
         <v>49</v>
       </c>
       <c r="N53" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
-      </c>
-      <c r="P53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -4062,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -4080,18 +3304,15 @@
         <v>41</v>
       </c>
       <c r="N54" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
-      </c>
-      <c r="P54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -4112,7 +3333,7 @@
         <v>25</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -4130,18 +3351,15 @@
         <v>64</v>
       </c>
       <c r="N55" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="O55" t="s">
-        <v>66</v>
-      </c>
-      <c r="P55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -4162,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I56">
         <v>-3</v>
@@ -4180,18 +3398,15 @@
         <v>60</v>
       </c>
       <c r="N56" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
-      </c>
-      <c r="P56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
@@ -4212,7 +3427,7 @@
         <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I57">
         <v>-9</v>
@@ -4230,24 +3445,21 @@
         <v>26</v>
       </c>
       <c r="N57" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
-      </c>
-      <c r="P57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>15</v>
@@ -4262,7 +3474,7 @@
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I58">
         <v>-1</v>
@@ -4280,18 +3492,15 @@
         <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="O58" t="s">
-        <v>68</v>
-      </c>
-      <c r="P58" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -4312,7 +3521,7 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I59">
         <v>7</v>
@@ -4329,22 +3538,22 @@
       <c r="M59">
         <v>44</v>
       </c>
+      <c r="N59" t="s">
+        <v>53</v>
+      </c>
       <c r="O59" t="s">
-        <v>66</v>
-      </c>
-      <c r="P59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D60">
         <v>27</v>
@@ -4359,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I60">
         <v>17</v>
@@ -4376,19 +3585,19 @@
       <c r="M60">
         <v>56</v>
       </c>
+      <c r="N60" t="s">
+        <v>55</v>
+      </c>
       <c r="O60" t="s">
-        <v>68</v>
-      </c>
-      <c r="P60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -4406,7 +3615,7 @@
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I61">
         <v>27</v>
@@ -4423,16 +3632,16 @@
       <c r="M61">
         <v>47</v>
       </c>
+      <c r="N61" t="s">
+        <v>53</v>
+      </c>
       <c r="O61" t="s">
-        <v>66</v>
-      </c>
-      <c r="P61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -4453,7 +3662,7 @@
         <v>7</v>
       </c>
       <c r="H62" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I62">
         <v>27</v>
@@ -4470,19 +3679,19 @@
       <c r="M62">
         <v>55</v>
       </c>
+      <c r="N62" t="s">
+        <v>55</v>
+      </c>
       <c r="O62" t="s">
-        <v>68</v>
-      </c>
-      <c r="P62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -4500,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I63">
         <v>26</v>
@@ -4517,16 +3726,16 @@
       <c r="M63">
         <v>31</v>
       </c>
+      <c r="N63" t="s">
+        <v>53</v>
+      </c>
       <c r="O63" t="s">
-        <v>66</v>
-      </c>
-      <c r="P63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -4547,7 +3756,7 @@
         <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I64">
         <v>-15</v>
@@ -4564,16 +3773,16 @@
       <c r="M64">
         <v>63</v>
       </c>
+      <c r="N64" t="s">
+        <v>53</v>
+      </c>
       <c r="O64" t="s">
-        <v>66</v>
-      </c>
-      <c r="P64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -4594,7 +3803,7 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I65">
         <v>-4</v>
@@ -4611,16 +3820,16 @@
       <c r="M65">
         <v>29</v>
       </c>
+      <c r="N65" t="s">
+        <v>55</v>
+      </c>
       <c r="O65" t="s">
-        <v>68</v>
-      </c>
-      <c r="P65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -4641,7 +3850,7 @@
         <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I66">
         <v>-8</v>
@@ -4658,22 +3867,22 @@
       <c r="M66">
         <v>31</v>
       </c>
+      <c r="N66" t="s">
+        <v>55</v>
+      </c>
       <c r="O66" t="s">
-        <v>68</v>
-      </c>
-      <c r="P66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D67">
         <v>33</v>
@@ -4688,7 +3897,7 @@
         <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I67">
         <v>16</v>
@@ -4705,19 +3914,19 @@
       <c r="M67">
         <v>51</v>
       </c>
+      <c r="N67" t="s">
+        <v>53</v>
+      </c>
       <c r="O67" t="s">
-        <v>66</v>
-      </c>
-      <c r="P67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -4735,7 +3944,7 @@
         <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I68">
         <v>-9</v>
@@ -4752,16 +3961,16 @@
       <c r="M68">
         <v>32</v>
       </c>
+      <c r="N68" t="s">
+        <v>53</v>
+      </c>
       <c r="O68" t="s">
-        <v>66</v>
-      </c>
-      <c r="P68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -4782,7 +3991,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I69">
         <v>-28</v>
@@ -4799,16 +4008,16 @@
       <c r="M69">
         <v>44</v>
       </c>
+      <c r="N69" t="s">
+        <v>55</v>
+      </c>
       <c r="O69" t="s">
-        <v>68</v>
-      </c>
-      <c r="P69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
@@ -4829,7 +4038,7 @@
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I70">
         <v>7</v>
@@ -4846,22 +4055,22 @@
       <c r="M70">
         <v>39</v>
       </c>
+      <c r="N70" t="s">
+        <v>53</v>
+      </c>
       <c r="O70" t="s">
-        <v>66</v>
-      </c>
-      <c r="P70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D71">
         <v>23</v>
@@ -4876,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I71">
         <v>9</v>
@@ -4893,16 +4102,16 @@
       <c r="M71">
         <v>53</v>
       </c>
+      <c r="N71" t="s">
+        <v>55</v>
+      </c>
       <c r="O71" t="s">
-        <v>68</v>
-      </c>
-      <c r="P71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -4923,7 +4132,7 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I72">
         <v>-7</v>
@@ -4940,11 +4149,660 @@
       <c r="M72">
         <v>24</v>
       </c>
+      <c r="N72" t="s">
+        <v>53</v>
+      </c>
       <c r="O72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>66</v>
       </c>
-      <c r="P72" t="s">
-        <v>53</v>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>28</v>
+      </c>
+      <c r="E73">
+        <v>36</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73">
+        <v>-12</v>
+      </c>
+      <c r="J73">
+        <v>-3</v>
+      </c>
+      <c r="K73">
+        <v>52</v>
+      </c>
+      <c r="L73">
+        <v>43.5</v>
+      </c>
+      <c r="M73">
+        <v>64</v>
+      </c>
+      <c r="N73" t="s">
+        <v>53</v>
+      </c>
+      <c r="O73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>29</v>
+      </c>
+      <c r="E74">
+        <v>21</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74">
+        <v>-13</v>
+      </c>
+      <c r="J74">
+        <v>-2.5</v>
+      </c>
+      <c r="K74">
+        <v>35</v>
+      </c>
+      <c r="L74">
+        <v>42.5</v>
+      </c>
+      <c r="M74">
+        <v>50</v>
+      </c>
+      <c r="N74" t="s">
+        <v>55</v>
+      </c>
+      <c r="O74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>31</v>
+      </c>
+      <c r="G75">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75">
+        <v>14</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>48</v>
+      </c>
+      <c r="L75">
+        <v>43</v>
+      </c>
+      <c r="M75">
+        <v>39</v>
+      </c>
+      <c r="N75" t="s">
+        <v>53</v>
+      </c>
+      <c r="O75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>22</v>
+      </c>
+      <c r="E76">
+        <v>24</v>
+      </c>
+      <c r="F76">
+        <v>24</v>
+      </c>
+      <c r="G76">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>45</v>
+      </c>
+      <c r="L76">
+        <v>42.5</v>
+      </c>
+      <c r="M76">
+        <v>46</v>
+      </c>
+      <c r="N76" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>27</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>29</v>
+      </c>
+      <c r="G77">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>48</v>
+      </c>
+      <c r="M77">
+        <v>47</v>
+      </c>
+      <c r="N77" t="s">
+        <v>53</v>
+      </c>
+      <c r="O77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>48</v>
+      </c>
+      <c r="F78">
+        <v>22</v>
+      </c>
+      <c r="G78">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78">
+        <v>-11</v>
+      </c>
+      <c r="J78">
+        <v>-9.5</v>
+      </c>
+      <c r="K78">
+        <v>55</v>
+      </c>
+      <c r="L78">
+        <v>48</v>
+      </c>
+      <c r="M78">
+        <v>57</v>
+      </c>
+      <c r="N78" t="s">
+        <v>53</v>
+      </c>
+      <c r="O78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>33</v>
+      </c>
+      <c r="E79">
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>21</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79">
+        <v>15</v>
+      </c>
+      <c r="J79">
+        <v>7.5</v>
+      </c>
+      <c r="K79">
+        <v>27</v>
+      </c>
+      <c r="L79">
+        <v>41.5</v>
+      </c>
+      <c r="M79">
+        <v>46</v>
+      </c>
+      <c r="N79" t="s">
+        <v>55</v>
+      </c>
+      <c r="O79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>33</v>
+      </c>
+      <c r="H80" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80">
+        <v>-25</v>
+      </c>
+      <c r="J80">
+        <v>-8.5</v>
+      </c>
+      <c r="K80">
+        <v>41</v>
+      </c>
+      <c r="L80">
+        <v>43.5</v>
+      </c>
+      <c r="M80">
+        <v>20</v>
+      </c>
+      <c r="N80" t="s">
+        <v>55</v>
+      </c>
+      <c r="O80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>26</v>
+      </c>
+      <c r="E81">
+        <v>23</v>
+      </c>
+      <c r="F81">
+        <v>27</v>
+      </c>
+      <c r="G81">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81">
+        <v>-9</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>63</v>
+      </c>
+      <c r="L81">
+        <v>48.5</v>
+      </c>
+      <c r="M81">
+        <v>49</v>
+      </c>
+      <c r="N81" t="s">
+        <v>53</v>
+      </c>
+      <c r="O81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>21</v>
+      </c>
+      <c r="E82">
+        <v>37</v>
+      </c>
+      <c r="F82">
+        <v>15</v>
+      </c>
+      <c r="G82">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I82">
+        <v>-16</v>
+      </c>
+      <c r="J82">
+        <v>-10</v>
+      </c>
+      <c r="K82">
+        <v>46</v>
+      </c>
+      <c r="L82">
+        <v>43</v>
+      </c>
+      <c r="M82">
+        <v>58</v>
+      </c>
+      <c r="N82" t="s">
+        <v>53</v>
+      </c>
+      <c r="O82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>38</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83">
+        <v>-16</v>
+      </c>
+      <c r="J83">
+        <v>-8.5</v>
+      </c>
+      <c r="K83">
+        <v>30</v>
+      </c>
+      <c r="L83">
+        <v>42</v>
+      </c>
+      <c r="M83">
+        <v>48</v>
+      </c>
+      <c r="N83" t="s">
+        <v>55</v>
+      </c>
+      <c r="O83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+      <c r="E84">
+        <v>33</v>
+      </c>
+      <c r="F84">
+        <v>33</v>
+      </c>
+      <c r="G84">
+        <v>36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84">
+        <v>-3</v>
+      </c>
+      <c r="J84">
+        <v>-3.5</v>
+      </c>
+      <c r="K84">
+        <v>69</v>
+      </c>
+      <c r="L84">
+        <v>53.5</v>
+      </c>
+      <c r="M84">
+        <v>60</v>
+      </c>
+      <c r="N84" t="s">
+        <v>53</v>
+      </c>
+      <c r="O84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>45</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85">
+        <v>-21</v>
+      </c>
+      <c r="J85">
+        <v>-12.5</v>
+      </c>
+      <c r="K85">
+        <v>35</v>
+      </c>
+      <c r="L85">
+        <v>43</v>
+      </c>
+      <c r="M85">
+        <v>75</v>
+      </c>
+      <c r="N85" t="s">
+        <v>55</v>
+      </c>
+      <c r="O85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <v>23</v>
+      </c>
+      <c r="I86">
+        <v>-8</v>
+      </c>
+      <c r="J86">
+        <v>-2.5</v>
+      </c>
+      <c r="K86">
+        <v>66</v>
+      </c>
+      <c r="L86">
+        <v>51.5</v>
+      </c>
+      <c r="M86">
+        <v>53</v>
+      </c>
+      <c r="N86" t="s">
+        <v>53</v>
+      </c>
+      <c r="O86" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4957,62 +4815,62 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>COUNTIF(Results!H2:H72,"WIN")</f>
-        <v>35</v>
+        <f>COUNTIF(Results!H2:H300,"WIN")</f>
+        <v>44</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Results!H2:H72,"LOSS")</f>
-        <v>36</v>
+        <f>COUNTIF(Results!H2:H300,"LOSS")</f>
+        <v>40</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.49299999999999999</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Results!P2:P72,"WIN")</f>
-        <v>33</v>
+        <f>COUNTIF(Results!O2:O300,"WIN")</f>
+        <v>41</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Results!P2:P72,"LOSS")</f>
-        <v>38</v>
+        <f>COUNTIF(Results!O2:O300,"LOSS")</f>
+        <v>44</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46500000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAEC8E1-ECF5-4165-BEE2-A1A0AF8EAD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052A743-94C8-48E9-BBC7-BC0C7035ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="WL Record" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="83">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -241,6 +240,51 @@
   </si>
   <si>
     <t>Los Angeles Chargers +3</t>
+  </si>
+  <si>
+    <t>Houston +5</t>
+  </si>
+  <si>
+    <t>New England +2</t>
+  </si>
+  <si>
+    <t>Cincinnati +2.5</t>
+  </si>
+  <si>
+    <t>Tennesee +1.5</t>
+  </si>
+  <si>
+    <t>Philadelphia -9.5</t>
+  </si>
+  <si>
+    <t>Arizona -13</t>
+  </si>
+  <si>
+    <t>Baltimore +6</t>
+  </si>
+  <si>
+    <t>Dallas -11</t>
+  </si>
+  <si>
+    <t>Miami -9.5</t>
+  </si>
+  <si>
+    <t>Cleveland +3.5</t>
+  </si>
+  <si>
+    <t>Buffalo -11</t>
+  </si>
+  <si>
+    <t>San Francisco -9</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams -7</t>
+  </si>
+  <si>
+    <t>Tampa Bay -11</t>
+  </si>
+  <si>
+    <t>Minnesota -5.5</t>
   </si>
 </sst>
 </file>
@@ -633,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +758,486 @@
         <v>54</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>-5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>-1.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4">
+        <v>49</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>-15</v>
+      </c>
+      <c r="F5">
+        <v>-9.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>42.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="I7">
+        <v>47.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>43.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>44.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-9.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>-6</v>
+      </c>
+      <c r="F11">
+        <v>3.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>-23</v>
+      </c>
+      <c r="F12">
+        <v>-11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <v>44.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>-20</v>
+      </c>
+      <c r="F13">
+        <v>-9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>46.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>-2.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>48</v>
+      </c>
+      <c r="I14">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>-16</v>
+      </c>
+      <c r="F15">
+        <v>-7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>52</v>
+      </c>
+      <c r="I15">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>-18</v>
+      </c>
+      <c r="F16">
+        <v>-11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>46.5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>5.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
         <v>53</v>
       </c>
     </row>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052A743-94C8-48E9-BBC7-BC0C7035ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760927DC-585E-41BD-AD66-69882BB196A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="69">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -239,52 +239,10 @@
     <t>14</t>
   </si>
   <si>
-    <t>Los Angeles Chargers +3</t>
-  </si>
-  <si>
-    <t>Houston +5</t>
-  </si>
-  <si>
-    <t>New England +2</t>
-  </si>
-  <si>
-    <t>Cincinnati +2.5</t>
-  </si>
-  <si>
-    <t>Tennesee +1.5</t>
-  </si>
-  <si>
-    <t>Philadelphia -9.5</t>
-  </si>
-  <si>
-    <t>Arizona -13</t>
-  </si>
-  <si>
-    <t>Baltimore +6</t>
-  </si>
-  <si>
-    <t>Dallas -11</t>
-  </si>
-  <si>
-    <t>Miami -9.5</t>
-  </si>
-  <si>
-    <t>Cleveland +3.5</t>
-  </si>
-  <si>
-    <t>Buffalo -11</t>
-  </si>
-  <si>
-    <t>San Francisco -9</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams -7</t>
-  </si>
-  <si>
-    <t>Tampa Bay -11</t>
-  </si>
-  <si>
-    <t>Minnesota -5.5</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Tennessee +3.5</t>
   </si>
 </sst>
 </file>
@@ -677,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,513 +689,33 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I2">
-        <v>54</v>
+        <v>45.5</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>-5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>-1.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4">
-        <v>49</v>
-      </c>
-      <c r="I4">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>-15</v>
-      </c>
-      <c r="F5">
-        <v>-9.5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5">
-        <v>49</v>
-      </c>
-      <c r="I5">
-        <v>42.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <v>38</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7">
-        <v>48</v>
-      </c>
-      <c r="I7">
-        <v>47.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8">
-        <v>51</v>
-      </c>
-      <c r="I8">
-        <v>43.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9">
-        <v>47</v>
-      </c>
-      <c r="I9">
-        <v>44.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>-13</v>
-      </c>
-      <c r="F10">
-        <v>-9.5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>-6</v>
-      </c>
-      <c r="F11">
-        <v>3.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>-23</v>
-      </c>
-      <c r="F12">
-        <v>-11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12">
-        <v>45</v>
-      </c>
-      <c r="I12">
-        <v>44.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>-20</v>
-      </c>
-      <c r="F13">
-        <v>-9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13">
-        <v>48</v>
-      </c>
-      <c r="I13">
-        <v>46.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>-2.5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14">
-        <v>48</v>
-      </c>
-      <c r="I14">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>34</v>
-      </c>
-      <c r="E15">
-        <v>-16</v>
-      </c>
-      <c r="F15">
-        <v>-7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15">
-        <v>52</v>
-      </c>
-      <c r="I15">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>42</v>
-      </c>
-      <c r="E16">
-        <v>-18</v>
-      </c>
-      <c r="F16">
-        <v>-11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16">
-        <v>66</v>
-      </c>
-      <c r="I16">
-        <v>46.5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>32</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>5.5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17">
-        <v>49</v>
-      </c>
-      <c r="I17">
-        <v>44</v>
-      </c>
-      <c r="J17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1248,12 +726,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6AE3A-BD10-4395-A680-AB7F59500C66}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,6 +4785,15 @@
       <c r="E86">
         <v>23</v>
       </c>
+      <c r="F86">
+        <v>33</v>
+      </c>
+      <c r="G86">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
       <c r="I86">
         <v>-8</v>
       </c>
@@ -5327,6 +4814,749 @@
       </c>
       <c r="O86" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <v>28</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>44</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>65</v>
+      </c>
+      <c r="L87">
+        <v>54</v>
+      </c>
+      <c r="M87">
+        <v>62</v>
+      </c>
+      <c r="N87" t="s">
+        <v>53</v>
+      </c>
+      <c r="O87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>28</v>
+      </c>
+      <c r="G88">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88">
+        <v>-4</v>
+      </c>
+      <c r="J88">
+        <v>-5</v>
+      </c>
+      <c r="K88">
+        <v>20</v>
+      </c>
+      <c r="L88">
+        <v>39</v>
+      </c>
+      <c r="M88">
+        <v>46</v>
+      </c>
+      <c r="N88" t="s">
+        <v>55</v>
+      </c>
+      <c r="O88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>19</v>
+      </c>
+      <c r="F89">
+        <v>17</v>
+      </c>
+      <c r="G89">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>-1.5</v>
+      </c>
+      <c r="K89">
+        <v>49</v>
+      </c>
+      <c r="L89">
+        <v>43</v>
+      </c>
+      <c r="M89">
+        <v>32</v>
+      </c>
+      <c r="N89" t="s">
+        <v>53</v>
+      </c>
+      <c r="O89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>27</v>
+      </c>
+      <c r="F90">
+        <v>29</v>
+      </c>
+      <c r="G90">
+        <v>29</v>
+      </c>
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90">
+        <v>-15</v>
+      </c>
+      <c r="J90">
+        <v>-9.5</v>
+      </c>
+      <c r="K90">
+        <v>49</v>
+      </c>
+      <c r="L90">
+        <v>42.5</v>
+      </c>
+      <c r="M90">
+        <v>44</v>
+      </c>
+      <c r="N90" t="s">
+        <v>53</v>
+      </c>
+      <c r="O90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>27</v>
+      </c>
+      <c r="F91">
+        <v>38</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>45</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>-2</v>
+      </c>
+      <c r="K91">
+        <v>58</v>
+      </c>
+      <c r="L91">
+        <v>46</v>
+      </c>
+      <c r="M91">
+        <v>44</v>
+      </c>
+      <c r="N91" t="s">
+        <v>53</v>
+      </c>
+      <c r="O91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
+      </c>
+      <c r="F92">
+        <v>26</v>
+      </c>
+      <c r="G92">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92">
+        <v>28</v>
+      </c>
+      <c r="J92">
+        <v>13</v>
+      </c>
+      <c r="K92">
+        <v>48</v>
+      </c>
+      <c r="L92">
+        <v>47.5</v>
+      </c>
+      <c r="M92">
+        <v>42</v>
+      </c>
+      <c r="N92" t="s">
+        <v>53</v>
+      </c>
+      <c r="O92" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
+      </c>
+      <c r="F93">
+        <v>33</v>
+      </c>
+      <c r="G93">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+      <c r="K93">
+        <v>51</v>
+      </c>
+      <c r="L93">
+        <v>43.5</v>
+      </c>
+      <c r="M93">
+        <v>61</v>
+      </c>
+      <c r="N93" t="s">
+        <v>53</v>
+      </c>
+      <c r="O93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>21</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s">
+        <v>45</v>
+      </c>
+      <c r="I94">
+        <v>19</v>
+      </c>
+      <c r="J94">
+        <v>11</v>
+      </c>
+      <c r="K94">
+        <v>47</v>
+      </c>
+      <c r="L94">
+        <v>44.5</v>
+      </c>
+      <c r="M94">
+        <v>27</v>
+      </c>
+      <c r="N94" t="s">
+        <v>53</v>
+      </c>
+      <c r="O94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>24</v>
+      </c>
+      <c r="E95">
+        <v>31</v>
+      </c>
+      <c r="F95">
+        <v>21</v>
+      </c>
+      <c r="G95">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95">
+        <v>-13</v>
+      </c>
+      <c r="J95">
+        <v>-9.5</v>
+      </c>
+      <c r="K95">
+        <v>37</v>
+      </c>
+      <c r="L95">
+        <v>41</v>
+      </c>
+      <c r="M95">
+        <v>55</v>
+      </c>
+      <c r="N95" t="s">
+        <v>55</v>
+      </c>
+      <c r="O95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96">
+        <v>34</v>
+      </c>
+      <c r="H96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I96">
+        <v>-6</v>
+      </c>
+      <c r="J96">
+        <v>3.5</v>
+      </c>
+      <c r="K96">
+        <v>48</v>
+      </c>
+      <c r="L96">
+        <v>38</v>
+      </c>
+      <c r="M96">
+        <v>30</v>
+      </c>
+      <c r="N96" t="s">
+        <v>53</v>
+      </c>
+      <c r="O96" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>31</v>
+      </c>
+      <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>34</v>
+      </c>
+      <c r="H97" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97">
+        <v>-23</v>
+      </c>
+      <c r="J97">
+        <v>-11</v>
+      </c>
+      <c r="K97">
+        <v>45</v>
+      </c>
+      <c r="L97">
+        <v>44.5</v>
+      </c>
+      <c r="M97">
+        <v>45</v>
+      </c>
+      <c r="N97" t="s">
+        <v>53</v>
+      </c>
+      <c r="O97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>13</v>
+      </c>
+      <c r="E98">
+        <v>31</v>
+      </c>
+      <c r="F98">
+        <v>26</v>
+      </c>
+      <c r="G98">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98">
+        <v>-20</v>
+      </c>
+      <c r="J98">
+        <v>-9</v>
+      </c>
+      <c r="K98">
+        <v>48</v>
+      </c>
+      <c r="L98">
+        <v>46.5</v>
+      </c>
+      <c r="M98">
+        <v>44</v>
+      </c>
+      <c r="N98" t="s">
+        <v>53</v>
+      </c>
+      <c r="O98" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>18</v>
+      </c>
+      <c r="G99">
+        <v>34</v>
+      </c>
+      <c r="H99" t="s">
+        <v>44</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>-2.5</v>
+      </c>
+      <c r="K99">
+        <v>48</v>
+      </c>
+      <c r="L99">
+        <v>44</v>
+      </c>
+      <c r="M99">
+        <v>25</v>
+      </c>
+      <c r="N99" t="s">
+        <v>53</v>
+      </c>
+      <c r="O99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+      <c r="F100">
+        <v>24</v>
+      </c>
+      <c r="G100">
+        <v>42</v>
+      </c>
+      <c r="H100" t="s">
+        <v>45</v>
+      </c>
+      <c r="I100">
+        <v>-16</v>
+      </c>
+      <c r="J100">
+        <v>-7</v>
+      </c>
+      <c r="K100">
+        <v>52</v>
+      </c>
+      <c r="L100">
+        <v>47</v>
+      </c>
+      <c r="M100">
+        <v>30</v>
+      </c>
+      <c r="N100" t="s">
+        <v>53</v>
+      </c>
+      <c r="O100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>32</v>
+      </c>
+      <c r="G101">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>44</v>
+      </c>
+      <c r="I101">
+        <v>-18</v>
+      </c>
+      <c r="J101">
+        <v>-11</v>
+      </c>
+      <c r="K101">
+        <v>66</v>
+      </c>
+      <c r="L101">
+        <v>46.5</v>
+      </c>
+      <c r="M101">
+        <v>9</v>
+      </c>
+      <c r="N101" t="s">
+        <v>53</v>
+      </c>
+      <c r="O101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+      <c r="I102">
+        <v>15</v>
+      </c>
+      <c r="J102">
+        <v>5.5</v>
+      </c>
+      <c r="K102">
+        <v>49</v>
+      </c>
+      <c r="L102">
+        <v>44</v>
+      </c>
+      <c r="M102">
+        <v>26</v>
+      </c>
+      <c r="N102" t="s">
+        <v>53</v>
+      </c>
+      <c r="O102" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5374,27 +5604,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Results!H2:H300,"WIN")</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Results!H2:H300,"LOSS")</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.52400000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Results!O2:O300,"WIN")</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Results!O2:O300,"LOSS")</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.48199999999999998</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760927DC-585E-41BD-AD66-69882BB196A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA5E22-0BCD-499E-A925-21B61EB9FD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="71">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>Tennessee +3.5</t>
+  </si>
+  <si>
+    <t>NO BET</t>
+  </si>
+  <si>
+    <t>UNDER LOW CONFIDENCE</t>
   </si>
 </sst>
 </file>
@@ -635,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +658,7 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -716,6 +722,70 @@
         <v>45.5</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>-8</v>
+      </c>
+      <c r="F3">
+        <v>-7.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>44.5</v>
+      </c>
+      <c r="I3">
+        <v>46.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>-2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4">
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <v>48.5</v>
+      </c>
+      <c r="J4" t="s">
         <v>53</v>
       </c>
     </row>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA5E22-0BCD-499E-A925-21B61EB9FD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1460FBA6-4EC5-4801-9DA2-B165640AC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="84">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -248,7 +248,46 @@
     <t>NO BET</t>
   </si>
   <si>
-    <t>UNDER LOW CONFIDENCE</t>
+    <t>New England -3</t>
+  </si>
+  <si>
+    <t>OVER LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNDER LOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OVER</t>
+  </si>
+  <si>
+    <t>UNDER (TEASER VALUE)</t>
+  </si>
+  <si>
+    <t>Detroit +7</t>
+  </si>
+  <si>
+    <t>OVER (TEASER VALUE)</t>
+  </si>
+  <si>
+    <t>Seattle -7 LOW</t>
+  </si>
+  <si>
+    <t>Denver +1</t>
+  </si>
+  <si>
+    <t>Dallas -9.5</t>
+  </si>
+  <si>
+    <t>New Orleans +2.5</t>
+  </si>
+  <si>
+    <t>NO BET (OVER TEASER VALUE)</t>
+  </si>
+  <si>
+    <t>NO BET( Minnesota TEASER VALUE)</t>
+  </si>
+  <si>
+    <t>NO BET (Carolina TEASER VALUE)</t>
   </si>
 </sst>
 </file>
@@ -641,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +694,7 @@
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" customWidth="1"/>
@@ -754,7 +793,7 @@
         <v>46.5</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -787,6 +826,422 @@
       </c>
       <c r="J4" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>-3</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>43.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="I7">
+        <v>48.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>-7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>42.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>-14</v>
+      </c>
+      <c r="F11">
+        <v>-11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>39</v>
+      </c>
+      <c r="I11">
+        <v>40.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>-7</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>41.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>-11</v>
+      </c>
+      <c r="F13">
+        <v>-7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>41.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>-12</v>
+      </c>
+      <c r="F14">
+        <v>-10.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>-16</v>
+      </c>
+      <c r="F16">
+        <v>-9.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>46.5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>-7</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>37.5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1460FBA6-4EC5-4801-9DA2-B165640AC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ECF467-7EDE-4EFC-A052-12B735307D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,10 +1223,10 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F17">
         <v>2.5</v>
@@ -1235,7 +1235,7 @@
         <v>80</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>37.5</v>

--- a/UpdatedResultsNFL.xlsx
+++ b/UpdatedResultsNFL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NFL-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ECF467-7EDE-4EFC-A052-12B735307D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B245D-082A-42E8-984F-DCE636216676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E355D2B9-20BB-4A06-AC71-876CAB97FF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="87">
   <si>
     <t>Atlanta Falcons</t>
   </si>
@@ -242,52 +242,61 @@
     <t>15</t>
   </si>
   <si>
-    <t>Tennessee +3.5</t>
-  </si>
-  <si>
     <t>NO BET</t>
   </si>
   <si>
-    <t>New England -3</t>
-  </si>
-  <si>
-    <t>OVER LOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNDER LOW </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OVER</t>
-  </si>
-  <si>
-    <t>UNDER (TEASER VALUE)</t>
-  </si>
-  <si>
-    <t>Detroit +7</t>
-  </si>
-  <si>
-    <t>OVER (TEASER VALUE)</t>
-  </si>
-  <si>
-    <t>Seattle -7 LOW</t>
-  </si>
-  <si>
-    <t>Denver +1</t>
-  </si>
-  <si>
-    <t>Dallas -9.5</t>
-  </si>
-  <si>
-    <t>New Orleans +2.5</t>
-  </si>
-  <si>
-    <t>NO BET (OVER TEASER VALUE)</t>
-  </si>
-  <si>
-    <t>NO BET( Minnesota TEASER VALUE)</t>
-  </si>
-  <si>
-    <t>NO BET (Carolina TEASER VALUE)</t>
+    <t>OVER LOW WIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OVER LOSS</t>
+  </si>
+  <si>
+    <t>UNDER (TEASER VALUE) LOSS</t>
+  </si>
+  <si>
+    <t>UNDER (TEASER VALUE)WIN</t>
+  </si>
+  <si>
+    <t>OVER (TEASER VALUE) LOSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVER (TEASER VALUE)WIN </t>
+  </si>
+  <si>
+    <t>UNDER (TEASER VALUE)LOSS</t>
+  </si>
+  <si>
+    <t>NO BET (OVER TEASER VALUE)LOSS</t>
+  </si>
+  <si>
+    <t>Tampa Bay -13.5</t>
+  </si>
+  <si>
+    <t>UNDER (LOW)</t>
+  </si>
+  <si>
+    <t>Indianapolis -8</t>
+  </si>
+  <si>
+    <t>OVER(LOW)</t>
+  </si>
+  <si>
+    <t>Philadelphia -6</t>
+  </si>
+  <si>
+    <t>New England -16.5</t>
+  </si>
+  <si>
+    <t>Tennessee -3</t>
+  </si>
+  <si>
+    <t>Buffalo -14.5</t>
+  </si>
+  <si>
+    <t>Cincinatti +4</t>
+  </si>
+  <si>
+    <t>Baltimore +6.5</t>
   </si>
 </sst>
 </file>
@@ -682,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31079618-4BFE-477F-846A-6A561CEA3C78}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,194 +743,194 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>27</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
         <v>68</v>
-      </c>
-      <c r="H2">
-        <v>47</v>
-      </c>
-      <c r="I2">
-        <v>45.5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F3">
-        <v>-7.5</v>
+        <v>-6</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>44.5</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>46.5</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F4">
-        <v>-2.5</v>
+        <v>-6.5</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>48.5</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
       <c r="D6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>-6.5</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>45</v>
+        <v>37.5</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>48.5</v>
+        <v>44.5</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -929,319 +938,319 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>-23</v>
+      </c>
+      <c r="F8">
+        <v>-16.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8">
         <v>38</v>
       </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
-      </c>
       <c r="I8">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F9">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I9">
-        <v>42.5</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>-22</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>-14.5</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I11">
-        <v>40.5</v>
+        <v>49.5</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>-7</v>
+        <v>-16</v>
       </c>
       <c r="F12">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I12">
-        <v>41.5</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="F13">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I13">
-        <v>41.5</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>31</v>
-      </c>
       <c r="E14">
-        <v>-12</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>-10.5</v>
+        <v>6.5</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I14">
-        <v>45</v>
+        <v>46.5</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>-7.5</v>
       </c>
       <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
         <v>78</v>
-      </c>
-      <c r="H15">
-        <v>41</v>
-      </c>
-      <c r="I15">
-        <v>42</v>
-      </c>
-      <c r="J15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>-16</v>
       </c>
       <c r="F16">
-        <v>-9.5</v>
+        <v>-13</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I16">
-        <v>46.5</v>
+        <v>42.5</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>-3</v>
-      </c>
       <c r="F17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I17">
-        <v>37.5</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1251,12 +1260,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6AE3A-BD10-4395-A680-AB7F59500C66}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5311,10 +5320,10 @@
         <v>23</v>
       </c>
       <c r="F86">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G86">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H86" t="s">
         <v>45</v>
@@ -5358,10 +5367,10 @@
         <v>28</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G87">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
         <v>44</v>
@@ -5405,10 +5414,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G88">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
         <v>45</v>
@@ -5452,10 +5461,10 @@
         <v>19</v>
       </c>
       <c r="F89">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G89">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H89" t="s">
         <v>44</v>
@@ -5499,10 +5508,10 @@
         <v>27</v>
       </c>
       <c r="F90">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G90">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90" t="s">
         <v>45</v>
@@ -5546,10 +5555,10 @@
         <v>27</v>
       </c>
       <c r="F91">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s">
         <v>45</v>
@@ -5593,10 +5602,10 @@
         <v>30</v>
       </c>
       <c r="F92">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H92" t="s">
         <v>44</v>
@@ -5640,10 +5649,10 @@
         <v>30</v>
       </c>
       <c r="F93">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G93">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
         <v>44</v>
@@ -5687,10 +5696,10 @@
         <v>6</v>
       </c>
       <c r="F94">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G94">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
         <v>45</v>
@@ -5734,10 +5743,10 @@
         <v>31</v>
       </c>
       <c r="F95">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G95">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H95" t="s">
         <v>44</v>
@@ -5781,10 +5790,10 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G96">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
         <v>44</v>
@@ -5828,7 +5837,7 @@
         <v>31</v>
       </c>
       <c r="F97">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G97">
         <v>34</v>
@@ -5875,10 +5884,10 @@
         <v>31</v>
       </c>
       <c r="F98">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G98">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H98" t="s">
         <v>44</v>
@@ -5922,10 +5931,10 @@
         <v>10</v>
       </c>
       <c r="F99">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G99">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H99" t="s">
         <v>44</v>
@@ -5969,10 +5978,10 @@
         <v>20</v>
       </c>
       <c r="F100">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G100">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H100" t="s">
         <v>45</v>
@@ -6016,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G101">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H101" t="s">
         <v>44</v>
@@ -6062,6 +6071,15 @@
       <c r="E102">
         <v>9</v>
       </c>
+      <c r="F102">
+        <v>32</v>
+      </c>
+      <c r="G102">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>44</v>
+      </c>
       <c r="I102">
         <v>15</v>
       </c>
@@ -6081,6 +6099,774 @@
         <v>53</v>
       </c>
       <c r="O102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>28</v>
+      </c>
+      <c r="G103">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>3.5</v>
+      </c>
+      <c r="K103">
+        <v>47</v>
+      </c>
+      <c r="L103">
+        <v>45.5</v>
+      </c>
+      <c r="M103">
+        <f>SUM(E103+F103)</f>
+        <v>48</v>
+      </c>
+      <c r="N103" t="s">
+        <v>53</v>
+      </c>
+      <c r="O103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>22</v>
+      </c>
+      <c r="E104">
+        <v>24</v>
+      </c>
+      <c r="F104">
+        <v>19</v>
+      </c>
+      <c r="G104">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>68</v>
+      </c>
+      <c r="I104">
+        <v>-8</v>
+      </c>
+      <c r="J104">
+        <v>-7.5</v>
+      </c>
+      <c r="K104">
+        <v>44.5</v>
+      </c>
+      <c r="L104">
+        <v>46.5</v>
+      </c>
+      <c r="M104">
+        <f t="shared" ref="M104:M118" si="2">SUM(E104+F104)</f>
+        <v>43</v>
+      </c>
+      <c r="N104" t="s">
+        <v>55</v>
+      </c>
+      <c r="O104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105">
+        <v>22</v>
+      </c>
+      <c r="E105">
+        <v>16</v>
+      </c>
+      <c r="F105">
+        <v>26</v>
+      </c>
+      <c r="G105">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105">
+        <v>-2</v>
+      </c>
+      <c r="J105">
+        <v>-2.5</v>
+      </c>
+      <c r="K105">
+        <v>54</v>
+      </c>
+      <c r="L105">
+        <v>48.5</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N105" t="s">
+        <v>53</v>
+      </c>
+      <c r="O105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>33</v>
+      </c>
+      <c r="E106">
+        <v>21</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106">
+        <v>24</v>
+      </c>
+      <c r="H106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I106">
+        <v>-3</v>
+      </c>
+      <c r="J106">
+        <v>-1</v>
+      </c>
+      <c r="K106">
+        <v>49</v>
+      </c>
+      <c r="L106">
+        <v>43.5</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N106" t="s">
+        <v>53</v>
+      </c>
+      <c r="O106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>29</v>
+      </c>
+      <c r="E107">
+        <v>41</v>
+      </c>
+      <c r="F107">
+        <v>31</v>
+      </c>
+      <c r="G107">
+        <v>21</v>
+      </c>
+      <c r="H107" t="s">
+        <v>68</v>
+      </c>
+      <c r="I107">
+        <v>10</v>
+      </c>
+      <c r="J107">
+        <v>12</v>
+      </c>
+      <c r="K107">
+        <v>48</v>
+      </c>
+      <c r="L107">
+        <v>45</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="N107" t="s">
+        <v>69</v>
+      </c>
+      <c r="O107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>23</v>
+      </c>
+      <c r="F108">
+        <v>29</v>
+      </c>
+      <c r="G108">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>68</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>52</v>
+      </c>
+      <c r="L108">
+        <v>48.5</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="N108" t="s">
+        <v>70</v>
+      </c>
+      <c r="O108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>26</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+      <c r="G109">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109">
+        <v>-2</v>
+      </c>
+      <c r="J109">
+        <v>-2</v>
+      </c>
+      <c r="K109">
+        <v>33</v>
+      </c>
+      <c r="L109">
+        <v>41</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N109" t="s">
+        <v>71</v>
+      </c>
+      <c r="O109" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+      <c r="F110">
+        <v>22</v>
+      </c>
+      <c r="G110">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s">
+        <v>44</v>
+      </c>
+      <c r="I110">
+        <v>-2</v>
+      </c>
+      <c r="J110">
+        <v>-7</v>
+      </c>
+      <c r="K110">
+        <v>36</v>
+      </c>
+      <c r="L110">
+        <v>42.5</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N110" t="s">
+        <v>72</v>
+      </c>
+      <c r="O110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>32</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <v>29</v>
+      </c>
+      <c r="G111">
+        <v>21</v>
+      </c>
+      <c r="H111" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111">
+        <v>8</v>
+      </c>
+      <c r="J111">
+        <v>11</v>
+      </c>
+      <c r="K111">
+        <v>47</v>
+      </c>
+      <c r="L111">
+        <v>44</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N111" t="s">
+        <v>73</v>
+      </c>
+      <c r="O111" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>34</v>
+      </c>
+      <c r="F112">
+        <v>16</v>
+      </c>
+      <c r="G112">
+        <v>30</v>
+      </c>
+      <c r="H112" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112">
+        <v>-14</v>
+      </c>
+      <c r="J112">
+        <v>-11</v>
+      </c>
+      <c r="K112">
+        <v>39</v>
+      </c>
+      <c r="L112">
+        <v>40.5</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N112" t="s">
+        <v>68</v>
+      </c>
+      <c r="O112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>22</v>
+      </c>
+      <c r="G113">
+        <v>29</v>
+      </c>
+      <c r="H113" t="s">
+        <v>68</v>
+      </c>
+      <c r="I113">
+        <v>-7</v>
+      </c>
+      <c r="J113">
+        <v>-7</v>
+      </c>
+      <c r="K113">
+        <v>50</v>
+      </c>
+      <c r="L113">
+        <v>41.5</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="N113" t="s">
+        <v>74</v>
+      </c>
+      <c r="O113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114">
+        <v>25</v>
+      </c>
+      <c r="E114">
+        <v>24</v>
+      </c>
+      <c r="F114">
+        <v>14</v>
+      </c>
+      <c r="G114">
+        <v>25</v>
+      </c>
+      <c r="H114" t="s">
+        <v>45</v>
+      </c>
+      <c r="I114">
+        <v>-11</v>
+      </c>
+      <c r="J114">
+        <v>-7</v>
+      </c>
+      <c r="K114">
+        <v>35</v>
+      </c>
+      <c r="L114">
+        <v>41.5</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N114" t="s">
+        <v>75</v>
+      </c>
+      <c r="O114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="E115">
+        <v>36</v>
+      </c>
+      <c r="F115">
+        <v>19</v>
+      </c>
+      <c r="G115">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115">
+        <v>-12</v>
+      </c>
+      <c r="J115">
+        <v>-10.5</v>
+      </c>
+      <c r="K115">
+        <v>46</v>
+      </c>
+      <c r="L115">
+        <v>45</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="N115" t="s">
+        <v>68</v>
+      </c>
+      <c r="O115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>17</v>
+      </c>
+      <c r="F116">
+        <v>24</v>
+      </c>
+      <c r="G116">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116">
+        <v>5</v>
+      </c>
+      <c r="J116">
+        <v>-1</v>
+      </c>
+      <c r="K116">
+        <v>41</v>
+      </c>
+      <c r="L116">
+        <v>42</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N116" t="s">
+        <v>68</v>
+      </c>
+      <c r="O116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <v>14</v>
+      </c>
+      <c r="E117">
+        <v>56</v>
+      </c>
+      <c r="F117">
+        <v>18</v>
+      </c>
+      <c r="G117">
+        <v>34</v>
+      </c>
+      <c r="H117" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117">
+        <v>-16</v>
+      </c>
+      <c r="J117">
+        <v>-9.5</v>
+      </c>
+      <c r="K117">
+        <v>45</v>
+      </c>
+      <c r="L117">
+        <v>46.5</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="N117" t="s">
+        <v>68</v>
+      </c>
+      <c r="O117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>18</v>
+      </c>
+      <c r="G118">
+        <v>21</v>
+      </c>
+      <c r="H118" t="s">
+        <v>45</v>
+      </c>
+      <c r="I118">
+        <v>-3</v>
+      </c>
+      <c r="J118">
+        <v>2.5</v>
+      </c>
+      <c r="K118">
+        <v>37</v>
+      </c>
+      <c r="L118">
+        <v>37.5</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N118" t="s">
+        <v>76</v>
+      </c>
+      <c r="O118" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6129,27 +6915,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Results!H2:H300,"WIN")</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Results!H2:H300,"LOSS")</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.54</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Results!O2:O300,"WIN")</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Results!O2:O300,"LOSS")</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.44600000000000001</v>
+        <v>0.434</v>
       </c>
     </row>
   </sheetData>
